--- a/data/hotels_by_city/Houston/Houston_shard_173.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_173.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d6610271-Reviews-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Days-Inn-Suites-By-Wyndham-Houston-North-Spring.h8114877.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1155 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r574771888-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6610271</t>
+  </si>
+  <si>
+    <t>574771888</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>DIRTY</t>
+  </si>
+  <si>
+    <t>ROACHES BEDBUGS DIRTY sheets the lady at the seat was rude and she said she was the manager breakfast was a Joke....NO REFUNDS you been warned I wish I would have known before bookings..... Don’t waste your money</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r572460646-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572460646</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Last Minute, Overnight Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was safe, clean, and had the most comfy bed ever!  staff was nice and helpful.  only critique is nobody can tell me the brand of the mattress in my room.  it was so comfortable I want to buy one! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r563958796-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563958796</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r562500779-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562500779</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANTASTIC VALUE </t>
+  </si>
+  <si>
+    <t>really, really great hotel on a budget - this hotel isn’t going to win any prizes for the exterior, but the people who run it are NICE, and the rooms are CLEAN and COMFORTABLE - these people believe in CLEAN, the bed was comfortable and the breakfast was good as well - 10/10 for value overall, only downside was it’s next to the highway so traffic noise all night long</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r554657630-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554657630</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Houston winter escape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is beautifully decorated, staff is very nice some don’t speak very much English, but they go out of their way to make you comfortable, but breakfast is limited. I had an issue with my bathroom shower and the promptly fixed. I would stay here again </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r548069152-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548069152</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r525287704-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525287704</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Stay - And They Have Pancakes !!</t>
+  </si>
+  <si>
+    <t>I found this hotel on my way up to the Woodlands and found it to be a wonderful stay. The area is easy to find and the staff are helpful. The room is spacious with a sofa, very comfortable queen size bed, a fridge and microwave. The morning breakfast was wonderful - and I always give bonus points to those hotels who have one of those pancake machines. Who doesn't love pancakes in the morning? I would come back to this hotel when I'm in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>I found this hotel on my way up to the Woodlands and found it to be a wonderful stay. The area is easy to find and the staff are helpful. The room is spacious with a sofa, very comfortable queen size bed, a fridge and microwave. The morning breakfast was wonderful - and I always give bonus points to those hotels who have one of those pancake machines. Who doesn't love pancakes in the morning? I would come back to this hotel when I'm in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r518389441-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518389441</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saved my life during Harvey Hurricane </t>
+  </si>
+  <si>
+    <t>Well, I got stuck in the middle of no where during the heavy rain/ flooded roads; I finally got lucky and found this motel. Spoke with Craig at the front desk and he found me a big comfortable room for my kids, wife and I. Not only that, he offered milk and supplies when he saw my kids. The next morning, I decided to head to my destination however; Craig did not encourage me but I had to do it. Craig again gave my kids fruits and a nice break fast and told me that he will keep the room for couple of hours just in case I get stuck again.. CRAIG YOU ARE A STAR AND YOUR SERVICES ARE ABSOLUTELY EXCEPTIONAL. The motel is really clean, up to the highest standards and the staff are of high morals and work ethics....  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Well, I got stuck in the middle of no where during the heavy rain/ flooded roads; I finally got lucky and found this motel. Spoke with Craig at the front desk and he found me a big comfortable room for my kids, wife and I. Not only that, he offered milk and supplies when he saw my kids. The next morning, I decided to head to my destination however; Craig did not encourage me but I had to do it. Craig again gave my kids fruits and a nice break fast and told me that he will keep the room for couple of hours just in case I get stuck again.. CRAIG YOU ARE A STAR AND YOUR SERVICES ARE ABSOLUTELY EXCEPTIONAL. The motel is really clean, up to the highest standards and the staff are of high morals and work ethics....  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r517077555-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517077555</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>excellent service</t>
+  </si>
+  <si>
+    <t>great and friendly staff, clean and comfortable  rooms. superior sleep quality . high recommended MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded August 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2017</t>
+  </si>
+  <si>
+    <t>great and friendly staff, clean and comfortable  rooms. superior sleep quality . high recommended More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r472609166-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472609166</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course layover </t>
+  </si>
+  <si>
+    <t>Decent place to stay right off the highway.  Room was clean and staff was friendly and helpful.  Nice place 2 stay for a budget minded person,  and just 5 to 10 min from airport depending on traffic.  No shuttle tho but Uber will do. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Decent place to stay right off the highway.  Room was clean and staff was friendly and helpful.  Nice place 2 stay for a budget minded person,  and just 5 to 10 min from airport depending on traffic.  No shuttle tho but Uber will do. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r466574887-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466574887</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r444029018-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444029018</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r414734524-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414734524</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Great find</t>
+  </si>
+  <si>
+    <t>Coming back from the water park and desperate for a room, we were able to get one here. Clean, friendly, beautiful setting. Right next to the freeway, but little to no traffic noise. Rooms were very modern and very clean. Very willing to help and make sure we were comfortable.Right next to a gas station and a Denny's. Wonderful location. Only downside was no cribs. Breakfast could be improved, but a beautiful and modern hotel. Very pretty outdoor seating area with a sink and gas grill with lots of seating.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Coming back from the water park and desperate for a room, we were able to get one here. Clean, friendly, beautiful setting. Right next to the freeway, but little to no traffic noise. Rooms were very modern and very clean. Very willing to help and make sure we were comfortable.Right next to a gas station and a Denny's. Wonderful location. Only downside was no cribs. Breakfast could be improved, but a beautiful and modern hotel. Very pretty outdoor seating area with a sink and gas grill with lots of seating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r411881862-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>411881862</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r403282111-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403282111</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Mediocre Motel</t>
+  </si>
+  <si>
+    <t>Booked a room for three nights at the motel because they advertised a three queen bed suite.  With 4 kids in tow, that would present a nice option to have the family together.   We were disappointed When we actually got to the room.  Turns out the "three queen suite" is three queen beds crammed into one room.   Unfortunately this configuration meant that there was no space at all in the room. They would have been better served to take out one of the beds ands added a sleeper sofa to provide more space and flexibility.  They have added a kitchenette to the back of the room.  It felt like this was done for their family to stay in the room and when their family is not staying in the room they rent it out.  Despite the fact that it had a small 2-burner range top they did not provide any flatware, cookware, etc.  I suppose they expect you to bring your own skillet. We elected not to remain for the duration of our stay and checked into a different hotel after our first night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Booked a room for three nights at the motel because they advertised a three queen bed suite.  With 4 kids in tow, that would present a nice option to have the family together.   We were disappointed When we actually got to the room.  Turns out the "three queen suite" is three queen beds crammed into one room.   Unfortunately this configuration meant that there was no space at all in the room. They would have been better served to take out one of the beds ands added a sleeper sofa to provide more space and flexibility.  They have added a kitchenette to the back of the room.  It felt like this was done for their family to stay in the room and when their family is not staying in the room they rent it out.  Despite the fact that it had a small 2-burner range top they did not provide any flatware, cookware, etc.  I suppose they expect you to bring your own skillet. We elected not to remain for the duration of our stay and checked into a different hotel after our first night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r392560917-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392560917</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r391889280-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391889280</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Wow. Amazing</t>
+  </si>
+  <si>
+    <t>Booked based off reviews. When I pulled up I was shocked it was a motel. Initially disappointed in this...I quickly realized that this place wasn't typical. The lobby was immaculate. Outdoors was a patio with bbq pits.  I was instantly upgraded when I checked in. The room was amazing. No carpet. Stainless full sized refrigerator and freezer. 4 burner stove. Full walk in closet. Wow. Bed was comfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked based off reviews. When I pulled up I was shocked it was a motel. Initially disappointed in this...I quickly realized that this place wasn't typical. The lobby was immaculate. Outdoors was a patio with bbq pits.  I was instantly upgraded when I checked in. The room was amazing. No carpet. Stainless full sized refrigerator and freezer. 4 burner stove. Full walk in closet. Wow. Bed was comfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r388739622-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388739622</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Perfect!!!</t>
+  </si>
+  <si>
+    <t>Every time I stay here it perfect. The hotel is amazing, hospital level of cleanliness,  the staff is great,  so all in all 2 thumbs up and a 5 star rating from me.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Every time I stay here it perfect. The hotel is amazing, hospital level of cleanliness,  the staff is great,  so all in all 2 thumbs up and a 5 star rating from me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r373882080-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373882080</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Decent Hotel Visit</t>
+  </si>
+  <si>
+    <t>Checked in later in the evening, front desk was unattended and took a minute for the manager to get there (was helping a guest). I had literally the last room at the end of the hallway away from the entrance, but that also made it furthest from the highway and quietest. Large room, clean and comfortable, WiFi worked well, and a decent nights rest. Basic breakfast in the morning with enough to fill the stomach and get you on your way.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded June 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2016</t>
+  </si>
+  <si>
+    <t>Checked in later in the evening, front desk was unattended and took a minute for the manager to get there (was helping a guest). I had literally the last room at the end of the hallway away from the entrance, but that also made it furthest from the highway and quietest. Large room, clean and comfortable, WiFi worked well, and a decent nights rest. Basic breakfast in the morning with enough to fill the stomach and get you on your way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r373868145-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373868145</t>
+  </si>
+  <si>
+    <t>Average amenities but nice rooms - appear to be a newer hotel</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while in town to attend a graduation.  Overall the hotel is decent.  The room we had was cleaned and with no odor!  I liked the futon in the kitchen area, there was one male in the group and we stuck him in there and closed the door at bed-time!  There was left over food in the microwave from the prior guess (shrimp and fish) good thing we realized it early on b/c that really would have smelled up the room.
+Many restaurants are within a five minute drive, there was no issue accessing the hotel just follow the signs off the main road (if you can read)!  Breakfast was not a hot breakfast like some of the similar hotels of this quality (their breakfast offering are high in carbs).  No issues for me (I simply decided to not partake in the breakfast).   Housekeeping was really nice and friendly, understanding that we wanted to lounge around, she brought us towels and emptied our trash and was on her way!
+The motorcycle group hung out on the other side of the Flying J so the noise from the trucks and motorcycle could not be heard.  If you are staying at this hotel with family and friends for 3 or 4 days, stop by the nearby grocery store, get something to cover the grill (to keep your food from touching the grates) and hang outside, there is  a really...Stayed at this hotel while in town to attend a graduation.  Overall the hotel is decent.  The room we had was cleaned and with no odor!  I liked the futon in the kitchen area, there was one male in the group and we stuck him in there and closed the door at bed-time!  There was left over food in the microwave from the prior guess (shrimp and fish) good thing we realized it early on b/c that really would have smelled up the room.Many restaurants are within a five minute drive, there was no issue accessing the hotel just follow the signs off the main road (if you can read)!  Breakfast was not a hot breakfast like some of the similar hotels of this quality (their breakfast offering are high in carbs).  No issues for me (I simply decided to not partake in the breakfast).   Housekeeping was really nice and friendly, understanding that we wanted to lounge around, she brought us towels and emptied our trash and was on her way!The motorcycle group hung out on the other side of the Flying J so the noise from the trucks and motorcycle could not be heard.  If you are staying at this hotel with family and friends for 3 or 4 days, stop by the nearby grocery store, get something to cover the grill (to keep your food from touching the grates) and hang outside, there is  a really nice gazebo to do this.  There is a fitness center here, small and to the point.  The equipment (all 3 machines) appears to be new but don't expect to be in a full fledge gym.  It's just enough for you to work off your meals.Tip to hotel:  The bottom of the door does not meet the ground and this is why bugs are able to crawl into the rooms.  You need to insert a door threshold so that the door seals to something.  I was afraid something would crawl in and I put a towel at the bottom of the door.  The gap from the bottom of the door to the ground is about half an inch so that's pretty big for rodents and creepy crawlers!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while in town to attend a graduation.  Overall the hotel is decent.  The room we had was cleaned and with no odor!  I liked the futon in the kitchen area, there was one male in the group and we stuck him in there and closed the door at bed-time!  There was left over food in the microwave from the prior guess (shrimp and fish) good thing we realized it early on b/c that really would have smelled up the room.
+Many restaurants are within a five minute drive, there was no issue accessing the hotel just follow the signs off the main road (if you can read)!  Breakfast was not a hot breakfast like some of the similar hotels of this quality (their breakfast offering are high in carbs).  No issues for me (I simply decided to not partake in the breakfast).   Housekeeping was really nice and friendly, understanding that we wanted to lounge around, she brought us towels and emptied our trash and was on her way!
+The motorcycle group hung out on the other side of the Flying J so the noise from the trucks and motorcycle could not be heard.  If you are staying at this hotel with family and friends for 3 or 4 days, stop by the nearby grocery store, get something to cover the grill (to keep your food from touching the grates) and hang outside, there is  a really...Stayed at this hotel while in town to attend a graduation.  Overall the hotel is decent.  The room we had was cleaned and with no odor!  I liked the futon in the kitchen area, there was one male in the group and we stuck him in there and closed the door at bed-time!  There was left over food in the microwave from the prior guess (shrimp and fish) good thing we realized it early on b/c that really would have smelled up the room.Many restaurants are within a five minute drive, there was no issue accessing the hotel just follow the signs off the main road (if you can read)!  Breakfast was not a hot breakfast like some of the similar hotels of this quality (their breakfast offering are high in carbs).  No issues for me (I simply decided to not partake in the breakfast).   Housekeeping was really nice and friendly, understanding that we wanted to lounge around, she brought us towels and emptied our trash and was on her way!The motorcycle group hung out on the other side of the Flying J so the noise from the trucks and motorcycle could not be heard.  If you are staying at this hotel with family and friends for 3 or 4 days, stop by the nearby grocery store, get something to cover the grill (to keep your food from touching the grates) and hang outside, there is  a really nice gazebo to do this.  There is a fitness center here, small and to the point.  The equipment (all 3 machines) appears to be new but don't expect to be in a full fledge gym.  It's just enough for you to work off your meals.Tip to hotel:  The bottom of the door does not meet the ground and this is why bugs are able to crawl into the rooms.  You need to insert a door threshold so that the door seals to something.  I was afraid something would crawl in and I put a towel at the bottom of the door.  The gap from the bottom of the door to the ground is about half an inch so that's pretty big for rodents and creepy crawlers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r372627920-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372627920</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Weekend Visit</t>
+  </si>
+  <si>
+    <t>Hotel was very nice, modern, clean, and well kept.  The front desk staff were professional, polite, and courteous.  We will stay at this location again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Hotel was very nice, modern, clean, and well kept.  The front desk staff were professional, polite, and courteous.  We will stay at this location again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r357953743-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357953743</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Great, inexpensive place to stay!</t>
+  </si>
+  <si>
+    <t>Really well lit at night, which is great! It made me feel very safe. Bathrooms and sheets were clean, kitchen was spotless. Beds were firm but comfortable. You can tell the staff really takes care of this place. Great location and breakfast is decent. When we arrived, we did not realize there would not be an elevator. I am disabled so this was a problem. Luckily there was a different room available on the first floor, and the manager moved us, no questions asked! Only complaint is It's right on the highway, so it is kind of noisy from the traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Really well lit at night, which is great! It made me feel very safe. Bathrooms and sheets were clean, kitchen was spotless. Beds were firm but comfortable. You can tell the staff really takes care of this place. Great location and breakfast is decent. When we arrived, we did not realize there would not be an elevator. I am disabled so this was a problem. Luckily there was a different room available on the first floor, and the manager moved us, no questions asked! Only complaint is It's right on the highway, so it is kind of noisy from the traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r353422635-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353422635</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r349707903-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349707903</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>A peaceful place</t>
+  </si>
+  <si>
+    <t>Made reservations, when I arrive there was a line the computer system was down, they did not have access to Internet reservations. The receptionist kept on apologizing and made us feel welcomed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Made reservations, when I arrive there was a line the computer system was down, they did not have access to Internet reservations. The receptionist kept on apologizing and made us feel welcomed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r341487211-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341487211</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r335133459-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335133459</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>Well located property for Intersate access</t>
+  </si>
+  <si>
+    <t>At check in I presented AARP, Wyndhdam &amp; driver license ... To be told by the clerk that the property would not grant both the Sr. discount AND points ! I suggested this was the first Days inn property with such &amp; opted for points. While located adjacent to a truck stop the large clean &amp; comfortable unit was well insulated from road noise. Next AM I spoke with management about the denied AARP discount &amp; the amount was credited back to my card ... Breakfast offered good variety &amp; value ! I will however hold onto the folio until the "points" appear on my account... I would expect to lodge at this accommodation, next Houston trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>At check in I presented AARP, Wyndhdam &amp; driver license ... To be told by the clerk that the property would not grant both the Sr. discount AND points ! I suggested this was the first Days inn property with such &amp; opted for points. While located adjacent to a truck stop the large clean &amp; comfortable unit was well insulated from road noise. Next AM I spoke with management about the denied AARP discount &amp; the amount was credited back to my card ... Breakfast offered good variety &amp; value ! I will however hold onto the folio until the "points" appear on my account... I would expect to lodge at this accommodation, next Houston trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r332277320-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332277320</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>Very clean, nicely decorated motel. Unfortunately it is located close to a busy highway and truck stop; however, the overall value of this motel is appealing and I would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r327922715-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327922715</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Wonderful room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They had to have remodeled this hotel because everything was new and clean.  Everything was flawless.  One can tell it was redesigned to stay cleaner longer by using smart products that will hold their appearance over time.  I usually don't stay in outdoor access hotels but this was nicer inside than many of the indoor access types in the same or slighter higher price ranges.   </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r323080053-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323080053</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r321725799-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321725799</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r315894814-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315894814</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r314109515-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314109515</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>The rooms were big and very comfortable.   They take AARP, Triple A, Senior discounts, and Truckers discounts, and the staff was very friendly.The bed was firm, but very high. There were 5 very soft and comfortable pillows.  There was a small modern love seat which was very firm.There is a nice small exercise room which we took advantage of. In the center of the outside area... was a nice large open shelter...with nice ourdoor furniture. There were also to huge grills for guests to use.The rooms have a small refrig, microwave, coffee maker, iron and ironing board, and a hair dryer. The breakfast was the normal continental breakfast.There weren't a large amount of TV channels or HBO..nor was there a channel list or phone book in the room. They did have WiFi. All in all we had a nice relaxing stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were big and very comfortable.   They take AARP, Triple A, Senior discounts, and Truckers discounts, and the staff was very friendly.The bed was firm, but very high. There were 5 very soft and comfortable pillows.  There was a small modern love seat which was very firm.There is a nice small exercise room which we took advantage of. In the center of the outside area... was a nice large open shelter...with nice ourdoor furniture. There were also to huge grills for guests to use.The rooms have a small refrig, microwave, coffee maker, iron and ironing board, and a hair dryer. The breakfast was the normal continental breakfast.There weren't a large amount of TV channels or HBO..nor was there a channel list or phone book in the room. They did have WiFi. All in all we had a nice relaxing stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r310386670-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310386670</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Clean and nice!</t>
+  </si>
+  <si>
+    <t>This hotel was very nice! Very clean! Everything was updated. The bed was a little more firm than my personal preference but it still slept very well.!! The only thing I was concerned about. I was traveling alone. And most every guest I saw here was male. It seemed like the hotspot for maybe construction workers? So at first I was unsure. But everyone I spoke too (guest wise) was very friendly and that helped put me at ease some. Staff was friendly and very helpful. And the hotel itself is in a good spot.. Not too far of a drive from shopping areas and restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was very nice! Very clean! Everything was updated. The bed was a little more firm than my personal preference but it still slept very well.!! The only thing I was concerned about. I was traveling alone. And most every guest I saw here was male. It seemed like the hotspot for maybe construction workers? So at first I was unsure. But everyone I spoke too (guest wise) was very friendly and that helped put me at ease some. Staff was friendly and very helpful. And the hotel itself is in a good spot.. Not too far of a drive from shopping areas and restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r298453207-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298453207</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>5 Star Days</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay @ Days Inn &amp; Suites Houston North/Spring. The room was clean and well maintained. The morning breakfast was complete and well presented. There was a non-hotel restaurant adjacent to the property that was open 24 hours per day. Overall, a 5-Star experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay @ Days Inn &amp; Suites Houston North/Spring. The room was clean and well maintained. The morning breakfast was complete and well presented. There was a non-hotel restaurant adjacent to the property that was open 24 hours per day. Overall, a 5-Star experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r297513278-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297513278</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>amazing inn</t>
+  </si>
+  <si>
+    <t>LOVE IT LOVE IT LOVE IT    we travel from san Francisco to Houston weekly. this place is like a resort. very very clean...inside and out. they have a beautiful cazebo with a bbq, tv and beautiful out door furniture. its located next to a flying j, so theres plenty of parking for truckers. this inn is definitely a 5 star ''HOME AWAY FROM HOME''  friendly staff, i can't wait to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>LOVE IT LOVE IT LOVE IT    we travel from san Francisco to Houston weekly. this place is like a resort. very very clean...inside and out. they have a beautiful cazebo with a bbq, tv and beautiful out door furniture. its located next to a flying j, so theres plenty of parking for truckers. this inn is definitely a 5 star ''HOME AWAY FROM HOME''  friendly staff, i can't wait to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r297477153-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297477153</t>
+  </si>
+  <si>
+    <t>Excellent Property</t>
+  </si>
+  <si>
+    <t>Hotel room was large with small sofa, refrigerator and microwave. There was a large flat-screen T.V. in excellent condition. The room was new, clean and fresh. The cleaning service was excellent. The free breakfast was the best that I have run across in these types of properties; it consisted of the typical fare plus hot waffles, regular and low-fat milk, and many types of microwaveable breakfast packs. A computer with printer was available in the lobby. The management was nice, polite and responsive to our needs. A Denney's Restaurant is located next to the hotel and is open 24 hours. Overall, an excellent experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel room was large with small sofa, refrigerator and microwave. There was a large flat-screen T.V. in excellent condition. The room was new, clean and fresh. The cleaning service was excellent. The free breakfast was the best that I have run across in these types of properties; it consisted of the typical fare plus hot waffles, regular and low-fat milk, and many types of microwaveable breakfast packs. A computer with printer was available in the lobby. The management was nice, polite and responsive to our needs. A Denney's Restaurant is located next to the hotel and is open 24 hours. Overall, an excellent experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r288950250-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288950250</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r287981939-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287981939</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r287785668-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287785668</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r280339847-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280339847</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded September 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r279013472-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279013472</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>A Happy 3-Night Stay</t>
+  </si>
+  <si>
+    <t>The room was attractive and spotless. Best of all, the front desk and maid service were most accommodating to my schedule and needs.  I felt well cared for and safe as a single female traveler.  Thank you to Sunny Patel, General Manager!MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was attractive and spotless. Best of all, the front desk and maid service were most accommodating to my schedule and needs.  I felt well cared for and safe as a single female traveler.  Thank you to Sunny Patel, General Manager!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r278594595-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278594595</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Good value for the money, and a little different</t>
+  </si>
+  <si>
+    <t>I came to Houston with a friend for one night, to catch a couple of Astros games.  Chose this place for the good reviews on Trip Advisor, and the price.  
+    Found the staff professional, friendly, and helpful.  They checked us into a room that wasn't yet made up, but when I called the desk to report this, they immediately switched us to another room, so that was no big deal.  
+    The place is new, and spotlessly clean.  There was no channel guide for the TV, either printed or on the TV itself, but that was no big deal either.  The shower has an adjustable head, which I found nice, and unexpected in this price range.  The beds were comfortable.  I got a good night's sleep.  
+    The place is a little interesting to get to.  You drive thru the parking lot of a Denny's to reach the parking lot of the hotel.  The same parking lot also serves a large convenience store called Flying J's, and the Denny's is actually in that building as well.  
+    The management is clearly from India, and interestingly, there are about a dozen Indian language channels on the TV.  The complimentary breakfast is a cut above average, because they emphasize healthy options.  There is an abundance of fresh fruit -  bananas and apples, mostly -- along with oatmeal, waffles, fruit juices, yogurt, and less of the standard fare.  No greasy sausages and gravy.  Only a few...I came to Houston with a friend for one night, to catch a couple of Astros games.  Chose this place for the good reviews on Trip Advisor, and the price.      Found the staff professional, friendly, and helpful.  They checked us into a room that wasn't yet made up, but when I called the desk to report this, they immediately switched us to another room, so that was no big deal.      The place is new, and spotlessly clean.  There was no channel guide for the TV, either printed or on the TV itself, but that was no big deal either.  The shower has an adjustable head, which I found nice, and unexpected in this price range.  The beds were comfortable.  I got a good night's sleep.      The place is a little interesting to get to.  You drive thru the parking lot of a Denny's to reach the parking lot of the hotel.  The same parking lot also serves a large convenience store called Flying J's, and the Denny's is actually in that building as well.      The management is clearly from India, and interestingly, there are about a dozen Indian language channels on the TV.  The complimentary breakfast is a cut above average, because they emphasize healthy options.  There is an abundance of fresh fruit -  bananas and apples, mostly -- along with oatmeal, waffles, fruit juices, yogurt, and less of the standard fare.  No greasy sausages and gravy.  Only a few sugary sweet rolls.  The synthetic eggs are tucked away discreetly in a refrigerated case with the milk.      The hotel is in an L-shape, with all the rooms facing the parking lot  The lower numbered rooms on each floor face south.  The higher numbered rooms face east.  Though the place is right on a busy freeway, we were not bothered by any noise.  It was quiet and peaceful.  And when the sun rose in the morning, we did not know, as the curtains do a good job of blocking out the light.  Walking out the front door into the morning sun was a bit fierce, so if that matters to you, get a south-facing room.      All in all, it was much nicer than you would expect, for a hotel in this price range.      They have made an interesting design choice.  Where most American motels would put a swimming pool, they have chosen to put an outdoor grilling and dining area, complete with very impressive new grills and tables for 6, with very comfortable and attractive cloth cushions.  I think they are going to find this area will not be used much, but I would not mind being wrong about that.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I came to Houston with a friend for one night, to catch a couple of Astros games.  Chose this place for the good reviews on Trip Advisor, and the price.  
+    Found the staff professional, friendly, and helpful.  They checked us into a room that wasn't yet made up, but when I called the desk to report this, they immediately switched us to another room, so that was no big deal.  
+    The place is new, and spotlessly clean.  There was no channel guide for the TV, either printed or on the TV itself, but that was no big deal either.  The shower has an adjustable head, which I found nice, and unexpected in this price range.  The beds were comfortable.  I got a good night's sleep.  
+    The place is a little interesting to get to.  You drive thru the parking lot of a Denny's to reach the parking lot of the hotel.  The same parking lot also serves a large convenience store called Flying J's, and the Denny's is actually in that building as well.  
+    The management is clearly from India, and interestingly, there are about a dozen Indian language channels on the TV.  The complimentary breakfast is a cut above average, because they emphasize healthy options.  There is an abundance of fresh fruit -  bananas and apples, mostly -- along with oatmeal, waffles, fruit juices, yogurt, and less of the standard fare.  No greasy sausages and gravy.  Only a few...I came to Houston with a friend for one night, to catch a couple of Astros games.  Chose this place for the good reviews on Trip Advisor, and the price.      Found the staff professional, friendly, and helpful.  They checked us into a room that wasn't yet made up, but when I called the desk to report this, they immediately switched us to another room, so that was no big deal.      The place is new, and spotlessly clean.  There was no channel guide for the TV, either printed or on the TV itself, but that was no big deal either.  The shower has an adjustable head, which I found nice, and unexpected in this price range.  The beds were comfortable.  I got a good night's sleep.      The place is a little interesting to get to.  You drive thru the parking lot of a Denny's to reach the parking lot of the hotel.  The same parking lot also serves a large convenience store called Flying J's, and the Denny's is actually in that building as well.      The management is clearly from India, and interestingly, there are about a dozen Indian language channels on the TV.  The complimentary breakfast is a cut above average, because they emphasize healthy options.  There is an abundance of fresh fruit -  bananas and apples, mostly -- along with oatmeal, waffles, fruit juices, yogurt, and less of the standard fare.  No greasy sausages and gravy.  Only a few sugary sweet rolls.  The synthetic eggs are tucked away discreetly in a refrigerated case with the milk.      The hotel is in an L-shape, with all the rooms facing the parking lot  The lower numbered rooms on each floor face south.  The higher numbered rooms face east.  Though the place is right on a busy freeway, we were not bothered by any noise.  It was quiet and peaceful.  And when the sun rose in the morning, we did not know, as the curtains do a good job of blocking out the light.  Walking out the front door into the morning sun was a bit fierce, so if that matters to you, get a south-facing room.      All in all, it was much nicer than you would expect, for a hotel in this price range.      They have made an interesting design choice.  Where most American motels would put a swimming pool, they have chosen to put an outdoor grilling and dining area, complete with very impressive new grills and tables for 6, with very comfortable and attractive cloth cushions.  I think they are going to find this area will not be used much, but I would not mind being wrong about that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r273170967-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273170967</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Very nice and clean.  Also enjoyed the outdoor cooking and...</t>
+  </si>
+  <si>
+    <t>Very nice and clean.  Also enjoyed the outdoor cooking and entertainment area.  Convenient location to Houston and The Woodlands.  Will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Very nice and clean.  Also enjoyed the outdoor cooking and entertainment area.  Convenient location to Houston and The Woodlands.  Will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r272248418-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272248418</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r272069774-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272069774</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r267387630-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267387630</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r266599687-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266599687</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Friday evening I was stuck in Houston due to thunderstorms and ended up at the Days Inn. Shawn was incredibly friendly and understanding of the rough day of travel I had. Overall the hotel exceeded my expectations and if I find myself in Houston in the future needing a hotel by the airport I will surely go with the Days Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Friday evening I was stuck in Houston due to thunderstorms and ended up at the Days Inn. Shawn was incredibly friendly and understanding of the rough day of travel I had. Overall the hotel exceeded my expectations and if I find myself in Houston in the future needing a hotel by the airport I will surely go with the Days Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r265574572-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265574572</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r262558206-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262558206</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Good value place</t>
+  </si>
+  <si>
+    <t>This is a very safe and clean environment. The wonderful customer service representatives were very friendly and completed my service in a timely manner. Great to know Denny's just a few steps ahead!, Falck courses training center are just a few steps ahead.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded May 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2015</t>
+  </si>
+  <si>
+    <t>This is a very safe and clean environment. The wonderful customer service representatives were very friendly and completed my service in a timely manner. Great to know Denny's just a few steps ahead!, Falck courses training center are just a few steps ahead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r261553689-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261553689</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Absolutely Amazing and Great Price</t>
+  </si>
+  <si>
+    <t>We walked into the room and was extremely excited about the beautiful room.  Very clean King room with a couch, desk, fridge and microwave!  Plenty of room in the vanity area and a separate bathroom.  There is a beautiful area outside to sit at tables and enjoy the sun or relax in the evening. We did not make use of the barbecue stations located in this area, but if interested it is worth asking about. Easy access to the interstate and restaurants. We were very pleased with the cleanliness and the staff in the hotel lobby.  Breakfast is self serve continental.  Free wifi that I am using now to write my review.  Decent tv channels as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>We walked into the room and was extremely excited about the beautiful room.  Very clean King room with a couch, desk, fridge and microwave!  Plenty of room in the vanity area and a separate bathroom.  There is a beautiful area outside to sit at tables and enjoy the sun or relax in the evening. We did not make use of the barbecue stations located in this area, but if interested it is worth asking about. Easy access to the interstate and restaurants. We were very pleased with the cleanliness and the staff in the hotel lobby.  Breakfast is self serve continental.  Free wifi that I am using now to write my review.  Decent tv channels as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r257190542-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257190542</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r250245182-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250245182</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>New, clean, perfectly accomodating</t>
+  </si>
+  <si>
+    <t>The rest of the hotels in the area have cock roaches.  This hotel is perfectly clean, all staff are extremely nice.  We added on extra days, and they continued our great online rate.  Free WiFi was a plus.  Small clean fitness facility, free breakfast. Close to everything we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>The rest of the hotels in the area have cock roaches.  This hotel is perfectly clean, all staff are extremely nice.  We added on extra days, and they continued our great online rate.  Free WiFi was a plus.  Small clean fitness facility, free breakfast. Close to everything we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r243119908-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243119908</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>They Did a very good job on the Remodel Here, We Stay 200+- days a year mostly HIE or HiltonWe were here for Two Nights in Dec. Beautiful Clean Room, Nice Patio with a Grill. Rates are great. If you stay here you won't  be Disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>They Did a very good job on the Remodel Here, We Stay 200+- days a year mostly HIE or HiltonWe were here for Two Nights in Dec. Beautiful Clean Room, Nice Patio with a Grill. Rates are great. If you stay here you won't  be Disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r242978010-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242978010</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>I have stayed at much more expensive hotels but very few have been as clean as this one.</t>
+  </si>
+  <si>
+    <t>I stayed for three nights while on business. The personnel were all very courteous and made me fill welcome. I can't say enough about how clean the room was. I would recommend this hotel to friends and family. My stay was excellent!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for three nights while on business. The personnel were all very courteous and made me fill welcome. I can't say enough about how clean the room was. I would recommend this hotel to friends and family. My stay was excellent!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r238660325-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238660325</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded February 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r237304196-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237304196</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded February 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r236553673-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236553673</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I stayed here for a week. The room was very clean and the staff is friendly. I was pleasantly surprised at the cleanliness of the rooms. The area it's in isn't the best, but they have security during the night and the entire place a nice fence around it. I was a little worried that someone might tamper with my car, but I had nothing to worry about. I would stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a week. The room was very clean and the staff is friendly. I was pleasantly surprised at the cleanliness of the rooms. The area it's in isn't the best, but they have security during the night and the entire place a nice fence around it. I was a little worried that someone might tamper with my car, but I had nothing to worry about. I would stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r233574823-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233574823</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r229794490-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229794490</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>There really isnt enough space to say as many good things about this hotel as I have to say, everything and anything good you can think of, this hotel has it, from clean spacious rooms to breakfast in the morning to plenty of towels and a great staff to great security this hotel has it ALL!!!! I travel a lot with my fiancé for work and we continually come back to this hotel and will continue to use them in the future!! All I can say is if they keep up the good maintenance and service I will always be a regular customer!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>There really isnt enough space to say as many good things about this hotel as I have to say, everything and anything good you can think of, this hotel has it, from clean spacious rooms to breakfast in the morning to plenty of towels and a great staff to great security this hotel has it ALL!!!! I travel a lot with my fiancé for work and we continually come back to this hotel and will continue to use them in the future!! All I can say is if they keep up the good maintenance and service I will always be a regular customer!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r228549924-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228549924</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>I had room 111. This has to be one of the best hotel room I have had. Very clean, everything was either recently updated or new. Awesome like 9ft ceilings.  Lights built into the ceiling.  Bathroom was super clean. And towels were nice and white and plushy. If im ever in the area again its a must stay. The outside gazebo area was really nice too. Very clean over all and the bed was fantastic,  the best night sleep I have ever had at a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2014</t>
+  </si>
+  <si>
+    <t>I had room 111. This has to be one of the best hotel room I have had. Very clean, everything was either recently updated or new. Awesome like 9ft ceilings.  Lights built into the ceiling.  Bathroom was super clean. And towels were nice and white and plushy. If im ever in the area again its a must stay. The outside gazebo area was really nice too. Very clean over all and the bed was fantastic,  the best night sleep I have ever had at a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r225126154-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225126154</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Nice Place to stay</t>
+  </si>
+  <si>
+    <t>Clean room, friendly &amp; helpful Front Desk clerk.  This was my first time in Houston and my GPS in the rental car stopped working and my mapquest directions had me lost. Called the motel and the girl was very knowledgeable of the area and got me there without any more problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded September 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2014</t>
+  </si>
+  <si>
+    <t>Clean room, friendly &amp; helpful Front Desk clerk.  This was my first time in Houston and my GPS in the rental car stopped working and my mapquest directions had me lost. Called the motel and the girl was very knowledgeable of the area and got me there without any more problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r223288562-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223288562</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Very nice people and place</t>
+  </si>
+  <si>
+    <t>I needed a place to rest for a few hours so I could continue a trip. I needed a few hours sleep to keep from falling asleep at the wheel. I thought that some coffee at Denny's would do the trick, but I was wrong. I saw the Days Inn &amp; Suites right next door and decided it might work for me. Best idea I had all day. I drove over, spoke to the kind young lady and within five minutes I was in a very nice room with a very nice A/C unit and was sleeping with 30 minutes. I just wish they had offered military, government, AARP or some kind of program that would have given them a bit better price. Still, it was worth it to me not to fall asleep while driving.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a place to rest for a few hours so I could continue a trip. I needed a few hours sleep to keep from falling asleep at the wheel. I thought that some coffee at Denny's would do the trick, but I was wrong. I saw the Days Inn &amp; Suites right next door and decided it might work for me. Best idea I had all day. I drove over, spoke to the kind young lady and within five minutes I was in a very nice room with a very nice A/C unit and was sleeping with 30 minutes. I just wish they had offered military, government, AARP or some kind of program that would have given them a bit better price. Still, it was worth it to me not to fall asleep while driving.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r217129113-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217129113</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Very Nice Room</t>
+  </si>
+  <si>
+    <t>The clerk at the front desk at 3:40 p.m. on July 23, 2014, was very pleasant and amenable, by providing me a room on the lower floor.   Also, the room was freshly cleaned and quite.   Just off of IH- 45 access road,  exit 64!!  Thanks for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>The clerk at the front desk at 3:40 p.m. on July 23, 2014, was very pleasant and amenable, by providing me a room on the lower floor.   Also, the room was freshly cleaned and quite.   Just off of IH- 45 access road,  exit 64!!  Thanks for a great stay.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1690,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1722,4266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>113</v>
+      </c>
+      <c r="X14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>144</v>
+      </c>
+      <c r="X16" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>151</v>
+      </c>
+      <c r="X18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>165</v>
+      </c>
+      <c r="X19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>174</v>
+      </c>
+      <c r="X21" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>174</v>
+      </c>
+      <c r="X22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>174</v>
+      </c>
+      <c r="X23" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>174</v>
+      </c>
+      <c r="X24" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>205</v>
+      </c>
+      <c r="X25" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>205</v>
+      </c>
+      <c r="X26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s">
+        <v>103</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>119</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>205</v>
+      </c>
+      <c r="X31" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>240</v>
+      </c>
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>205</v>
+      </c>
+      <c r="X32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" t="s">
+        <v>103</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>205</v>
+      </c>
+      <c r="X33" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>205</v>
+      </c>
+      <c r="X34" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>205</v>
+      </c>
+      <c r="X35" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>261</v>
+      </c>
+      <c r="J36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" t="s">
+        <v>264</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>258</v>
+      </c>
+      <c r="O36" t="s">
+        <v>103</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>205</v>
+      </c>
+      <c r="X36" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>269</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>205</v>
+      </c>
+      <c r="X37" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>119</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>274</v>
+      </c>
+      <c r="O38" t="s">
+        <v>103</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>205</v>
+      </c>
+      <c r="X38" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>274</v>
+      </c>
+      <c r="O39" t="s">
+        <v>103</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>205</v>
+      </c>
+      <c r="X39" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>274</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>205</v>
+      </c>
+      <c r="X40" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>119</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>103</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>285</v>
+      </c>
+      <c r="X41" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>288</v>
+      </c>
+      <c r="J42" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" t="s">
+        <v>291</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>284</v>
+      </c>
+      <c r="O42" t="s">
+        <v>85</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>205</v>
+      </c>
+      <c r="X42" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43" t="s">
+        <v>295</v>
+      </c>
+      <c r="K43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L43" t="s">
+        <v>297</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>284</v>
+      </c>
+      <c r="O43" t="s">
+        <v>298</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>285</v>
+      </c>
+      <c r="X43" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>301</v>
+      </c>
+      <c r="J44" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" t="s">
+        <v>304</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>305</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>285</v>
+      </c>
+      <c r="X44" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>308</v>
+      </c>
+      <c r="J45" t="s">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>119</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>305</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>285</v>
+      </c>
+      <c r="X45" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>310</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>311</v>
+      </c>
+      <c r="J46" t="s">
+        <v>312</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>119</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>313</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>285</v>
+      </c>
+      <c r="X46" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>119</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>313</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>285</v>
+      </c>
+      <c r="X47" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>317</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>318</v>
+      </c>
+      <c r="J48" t="s">
+        <v>319</v>
+      </c>
+      <c r="K48" t="s">
+        <v>320</v>
+      </c>
+      <c r="L48" t="s">
+        <v>321</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>313</v>
+      </c>
+      <c r="O48" t="s">
+        <v>103</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>285</v>
+      </c>
+      <c r="X48" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>324</v>
+      </c>
+      <c r="J49" t="s">
+        <v>325</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>119</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>313</v>
+      </c>
+      <c r="O49" t="s">
+        <v>103</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>285</v>
+      </c>
+      <c r="X49" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" t="s">
+        <v>328</v>
+      </c>
+      <c r="K50" t="s">
+        <v>329</v>
+      </c>
+      <c r="L50" t="s">
+        <v>330</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>331</v>
+      </c>
+      <c r="O50" t="s">
+        <v>103</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>332</v>
+      </c>
+      <c r="X50" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>335</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>336</v>
+      </c>
+      <c r="J51" t="s">
+        <v>337</v>
+      </c>
+      <c r="K51" t="s">
+        <v>338</v>
+      </c>
+      <c r="L51" t="s">
+        <v>339</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>331</v>
+      </c>
+      <c r="O51" t="s">
+        <v>103</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>332</v>
+      </c>
+      <c r="X51" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>341</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>342</v>
+      </c>
+      <c r="J52" t="s">
+        <v>343</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>344</v>
+      </c>
+      <c r="O52" t="s">
+        <v>103</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>332</v>
+      </c>
+      <c r="X52" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>345</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>346</v>
+      </c>
+      <c r="J53" t="s">
+        <v>347</v>
+      </c>
+      <c r="K53" t="s">
+        <v>348</v>
+      </c>
+      <c r="L53" t="s">
+        <v>349</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>350</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>332</v>
+      </c>
+      <c r="X53" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>353</v>
+      </c>
+      <c r="J54" t="s">
+        <v>354</v>
+      </c>
+      <c r="K54" t="s">
+        <v>320</v>
+      </c>
+      <c r="L54" t="s">
+        <v>355</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>356</v>
+      </c>
+      <c r="O54" t="s">
+        <v>103</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>332</v>
+      </c>
+      <c r="X54" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J55" t="s">
+        <v>360</v>
+      </c>
+      <c r="K55" t="s">
+        <v>361</v>
+      </c>
+      <c r="L55" t="s">
+        <v>362</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>332</v>
+      </c>
+      <c r="X55" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>364</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>365</v>
+      </c>
+      <c r="J56" t="s">
+        <v>366</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>119</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>367</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>368</v>
+      </c>
+      <c r="X56" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>370</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>371</v>
+      </c>
+      <c r="J57" t="s">
+        <v>372</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>119</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>367</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>373</v>
+      </c>
+      <c r="X57" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>375</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>376</v>
+      </c>
+      <c r="J58" t="s">
+        <v>377</v>
+      </c>
+      <c r="K58" t="s">
+        <v>378</v>
+      </c>
+      <c r="L58" t="s">
+        <v>379</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O58" t="s">
+        <v>103</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>373</v>
+      </c>
+      <c r="X58" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>381</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>382</v>
+      </c>
+      <c r="J59" t="s">
+        <v>383</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>119</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>384</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>373</v>
+      </c>
+      <c r="X59" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60" t="s">
+        <v>387</v>
+      </c>
+      <c r="K60" t="s">
+        <v>388</v>
+      </c>
+      <c r="L60" t="s">
+        <v>389</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>384</v>
+      </c>
+      <c r="O60" t="s">
+        <v>103</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>390</v>
+      </c>
+      <c r="X60" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>393</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>394</v>
+      </c>
+      <c r="J61" t="s">
+        <v>395</v>
+      </c>
+      <c r="K61" t="s">
+        <v>396</v>
+      </c>
+      <c r="L61" t="s">
+        <v>397</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>384</v>
+      </c>
+      <c r="O61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>398</v>
+      </c>
+      <c r="X61" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>401</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>402</v>
+      </c>
+      <c r="J62" t="s">
+        <v>403</v>
+      </c>
+      <c r="K62" t="s">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s">
+        <v>405</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>406</v>
+      </c>
+      <c r="O62" t="s">
+        <v>103</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>407</v>
+      </c>
+      <c r="X62" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>410</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>411</v>
+      </c>
+      <c r="J63" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" t="s">
+        <v>413</v>
+      </c>
+      <c r="L63" t="s">
+        <v>414</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>406</v>
+      </c>
+      <c r="O63" t="s">
+        <v>85</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>407</v>
+      </c>
+      <c r="X63" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>416</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J64" t="s">
+        <v>418</v>
+      </c>
+      <c r="K64" t="s">
+        <v>419</v>
+      </c>
+      <c r="L64" t="s">
+        <v>420</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>421</v>
+      </c>
+      <c r="O64" t="s">
+        <v>85</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>407</v>
+      </c>
+      <c r="X64" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_173.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_173.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="649">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r602654300-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6610271</t>
+  </si>
+  <si>
+    <t>602654300</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Best hotel ivII been in all year!  Very clean and professional staff!</t>
+  </si>
+  <si>
+    <t>Very conveniently located to Houston and The Woodlands area and great buffets.  Cleanest and most professional staff all year!!  Front desk staff was awesome!  Uber readily available for travel.  Could not hear road noise.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r574771888-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>6610271</t>
-  </si>
-  <si>
     <t>574771888</t>
   </si>
   <si>
@@ -210,15 +231,39 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r562604628-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562604628</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>There were wads of someone else’s hair in our bed.  I’m blonde.  This hair doesn’t belong to me.  There were multiple pieces throughout the bed sheets.  I want to vomit.  It’s also next to a truck stop and I’m pretty sure there are hookers everywhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r562604608-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562604608</t>
+  </si>
+  <si>
+    <t>Horrible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sheets were disgusting they were covered in hair and stains. The towels weren’t clean either. The wall was falling apart. The sink was stopped up with god knows what. The TV didn’t work. Don’t stay here. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r562500779-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
     <t>562500779</t>
   </si>
   <si>
-    <t>02/24/2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">FANTASTIC VALUE </t>
   </si>
   <si>
@@ -255,6 +300,54 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r546299020-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546299020</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent Location.... looking forward to my next stay!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an ideal place to stay great location friendly staff and you are right off the hwy everything is within minutes </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r535413113-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535413113</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Days Inn</t>
+  </si>
+  <si>
+    <t>This Days Inn was everything we imagined and more. The price was right and the amenities there are no words! We had an excellent stay and it felt as if were staying at a 5 star hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>This Days Inn was everything we imagined and more. The price was right and the amenities there are no words! We had an excellent stay and it felt as if were staying at a 5 star hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r525287704-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -273,9 +366,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded October 19, 2017</t>
   </si>
   <si>
@@ -285,6 +375,24 @@
     <t>I found this hotel on my way up to the Woodlands and found it to be a wonderful stay. The area is easy to find and the staff are helpful. The room is spacious with a sofa, very comfortable queen size bed, a fridge and microwave. The morning breakfast was wonderful - and I always give bonus points to those hotels who have one of those pancake machines. Who doesn't love pancakes in the morning? I would come back to this hotel when I'm in the Houston area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r519920192-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519920192</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurricane Harvey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With the onset of hurricane Harvey, this lovely hotel was without a doubt a great sigh of relief. The staff are pleasant and helpful. The rooms are beautifully decorated and up to date. During the hardest days of the hurricane, these people opened the doors to the world restoring my faith in humanity. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r518389441-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -300,9 +408,6 @@
     <t>Well, I got stuck in the middle of no where during the heavy rain/ flooded roads; I finally got lucky and found this motel. Spoke with Craig at the front desk and he found me a big comfortable room for my kids, wife and I. Not only that, he offered milk and supplies when he saw my kids. The next morning, I decided to head to my destination however; Craig did not encourage me but I had to do it. Craig again gave my kids fruits and a nice break fast and told me that he will keep the room for couple of hours just in case I get stuck again.. CRAIG YOU ARE A STAR AND YOUR SERVICES ARE ABSOLUTELY EXCEPTIONAL. The motel is really clean, up to the highest standards and the staff are of high morals and work ethics....  MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded September 28, 2017</t>
   </si>
   <si>
@@ -327,9 +432,6 @@
     <t>great and friendly staff, clean and comfortable  rooms. superior sleep quality . high recommended MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded August 26, 2017</t>
   </si>
   <si>
@@ -339,6 +441,57 @@
     <t>great and friendly staff, clean and comfortable  rooms. superior sleep quality . high recommended More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r511830143-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511830143</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r495165166-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495165166</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Great night</t>
+  </si>
+  <si>
+    <t>I stayed one at this location it was nice I wasn't expecting it cause it's a days inn and I haven't had good experience with days inn hotels. I will stay at this location again if need be. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>I stayed one at this location it was nice I wasn't expecting it cause it's a days inn and I haven't had good experience with days inn hotels. I will stay at this location again if need be. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r472609166-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -375,9 +528,6 @@
     <t>03/12/2017</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
     <t>February 2017</t>
   </si>
   <si>
@@ -387,9 +537,6 @@
     <t>Responded July 30, 2017</t>
   </si>
   <si>
-    <t>More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r444029018-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -402,6 +549,51 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r442035417-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442035417</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r423586798-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423586798</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Nice, large room</t>
+  </si>
+  <si>
+    <t>We stayed here on the way home. The room was quite large and well maintained. The hotel is conveniently located just off the North Freeway. There was some road noise, but with the A/C on we didn't notice it and had a great night's sleep. The breakfast options were better than usual, though the lobby area was very crowded.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here on the way home. The room was quite large and well maintained. The hotel is conveniently located just off the North Freeway. There was some road noise, but with the A/C on we didn't notice it and had a great night's sleep. The breakfast options were better than usual, though the lobby area was very crowded.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r414734524-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -417,9 +609,6 @@
     <t>Coming back from the water park and desperate for a room, we were able to get one here. Clean, friendly, beautiful setting. Right next to the freeway, but little to no traffic noise. Rooms were very modern and very clean. Very willing to help and make sure we were comfortable.Right next to a gas station and a Denny's. Wonderful location. Only downside was no cribs. Breakfast could be improved, but a beautiful and modern hotel. Very pretty outdoor seating area with a sink and gas grill with lots of seating.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Coming back from the water park and desperate for a room, we were able to get one here. Clean, friendly, beautiful setting. Right next to the freeway, but little to no traffic noise. Rooms were very modern and very clean. Very willing to help and make sure we were comfortable.Right next to a gas station and a Denny's. Wonderful location. Only downside was no cribs. Breakfast could be improved, but a beautiful and modern hotel. Very pretty outdoor seating area with a sink and gas grill with lots of seating.More</t>
   </si>
   <si>
@@ -432,9 +621,6 @@
     <t>08/28/2016</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r403282111-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -459,6 +645,27 @@
     <t>Booked a room for three nights at the motel because they advertised a three queen bed suite.  With 4 kids in tow, that would present a nice option to have the family together.   We were disappointed When we actually got to the room.  Turns out the "three queen suite" is three queen beds crammed into one room.   Unfortunately this configuration meant that there was no space at all in the room. They would have been better served to take out one of the beds ands added a sleeper sofa to provide more space and flexibility.  They have added a kitchenette to the back of the room.  It felt like this was done for their family to stay in the room and when their family is not staying in the room they rent it out.  Despite the fact that it had a small 2-burner range top they did not provide any flatware, cookware, etc.  I suppose they expect you to bring your own skillet. We elected not to remain for the duration of our stay and checked into a different hotel after our first night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r399489906-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399489906</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>travelingdale</t>
+  </si>
+  <si>
+    <t>this property was extremely clean, however I felt like I was in prison there, cast iron gate all around the property, MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>this property was extremely clean, however I felt like I was in prison there, cast iron gate all around the property, More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r392560917-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -468,15 +675,6 @@
     <t>07/14/2016</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
-    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded October 4, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 4, 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r391889280-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -513,15 +711,54 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Sunny P, Front Office Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded July 29, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 29, 2017</t>
-  </si>
-  <si>
     <t>Every time I stay here it perfect. The hotel is amazing, hospital level of cleanliness,  the staff is great,  so all in all 2 thumbs up and a 5 star rating from me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r381751213-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381751213</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>The staff here at Days Inn &amp; Suites North/Spring are real nice. The rooms are super clean &amp; new.  You have more than enough room to stretch out &amp; relax.  There was a refrigerator &amp; microwave in my room plus a nice little love seat with coffe table.  Also if you have any office work there is a table with chair, enough room throughout the room to spread your work out if needed.  The WIFI is good as any place obviously more users less speed.  Sorry for the dark pictures they were taken with my phone not a whole lot of flash.  Happy Travels &amp; be safe out there MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff here at Days Inn &amp; Suites North/Spring are real nice. The rooms are super clean &amp; new.  You have more than enough room to stretch out &amp; relax.  There was a refrigerator &amp; microwave in my room plus a nice little love seat with coffe table.  Also if you have any office work there is a table with chair, enough room throughout the room to spread your work out if needed.  The WIFI is good as any place obviously more users less speed.  Sorry for the dark pictures they were taken with my phone not a whole lot of flash.  Happy Travels &amp; be safe out there More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r375225636-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375225636</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Who knew a Days Inn has a luxury suite?</t>
+  </si>
+  <si>
+    <t>Great suite with a full kitchen fridge, stove, sink, walk-in closet, sofa, etc. And it had a garden view too! Ravi, who was the manager was very friendly and accommodated my date changes immediately. Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded June 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2016</t>
+  </si>
+  <si>
+    <t>Great suite with a full kitchen fridge, stove, sink, walk-in closet, sofa, etc. And it had a garden view too! Ravi, who was the manager was very friendly and accommodated my date changes immediately. Thanks!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r373882080-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -535,15 +772,6 @@
   </si>
   <si>
     <t>Checked in later in the evening, front desk was unattended and took a minute for the manager to get there (was helping a guest). I had literally the last room at the end of the hallway away from the entrance, but that also made it furthest from the highway and quietest. Large room, clean and comfortable, WiFi worked well, and a decent nights rest. Basic breakfast in the morning with enough to fill the stomach and get you on your way.MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2016</t>
-  </si>
-  <si>
-    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded June 5, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 5, 2016</t>
   </si>
   <si>
     <t>Checked in later in the evening, front desk was unattended and took a minute for the manager to get there (was helping a guest). I had literally the last room at the end of the hallway away from the entrance, but that also made it furthest from the highway and quietest. Large room, clean and comfortable, WiFi worked well, and a decent nights rest. Basic breakfast in the morning with enough to fill the stomach and get you on your way.More</t>
@@ -589,6 +817,42 @@
     <t>Hotel was very nice, modern, clean, and well kept.  The front desk staff were professional, polite, and courteous.  We will stay at this location again in the future.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r363655500-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363655500</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Cockroaches</t>
+  </si>
+  <si>
+    <t>Saw cockroaches killed one took a picture showed the manager and he just looked at me and offered a discount on the next night stay which I am not even staying another night. why would I? Left without brushing my teeth. No I did not ask for a refund or a discount but yes I kind of did expect one. 4/12/16...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r358198944-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358198944</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Stayed two nights while visiting family. Room was modern, spacious and very clean. The breakfast was typical fare. Staff was very helpful and Ravi was amazing!!! We will definitely stay here on our next visit!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Stayed two nights while visiting family. Room was modern, spacious and very clean. The breakfast was typical fare. Staff was very helpful and Ravi was amazing!!! We will definitely stay here on our next visit!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r357953743-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -604,9 +868,6 @@
     <t>Really well lit at night, which is great! It made me feel very safe. Bathrooms and sheets were clean, kitchen was spotless. Beds were firm but comfortable. You can tell the staff really takes care of this place. Great location and breakfast is decent. When we arrived, we did not realize there would not be an elevator. I am disabled so this was a problem. Luckily there was a different room available on the first floor, and the manager moved us, no questions asked! Only complaint is It's right on the highway, so it is kind of noisy from the traffic.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Really well lit at night, which is great! It made me feel very safe. Bathrooms and sheets were clean, kitchen was spotless. Beds were firm but comfortable. You can tell the staff really takes care of this place. Great location and breakfast is decent. When we arrived, we did not realize there would not be an elevator. I am disabled so this was a problem. Luckily there was a different room available on the first floor, and the manager moved us, no questions asked! Only complaint is It's right on the highway, so it is kind of noisy from the traffic.More</t>
   </si>
   <si>
@@ -646,6 +907,36 @@
     <t>Made reservations, when I arrive there was a line the computer system was down, they did not have access to Internet reservations. The receptionist kept on apologizing and made us feel welcomed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r345606230-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345606230</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>best stay</t>
+  </si>
+  <si>
+    <t>It is always a pleasure to stay at this hotel.  The beds are so soft , room is always clean. The customer service is amazing. I stay at this hotel every time I'm in Houston. Its very friendly safe and secure! Keep up Tge amazing job and you will see me every two weeks! MoreShow less</t>
+  </si>
+  <si>
+    <t>It is always a pleasure to stay at this hotel.  The beds are so soft , room is always clean. The customer service is amazing. I stay at this hotel every time I'm in Houston. Its very friendly safe and secure! Keep up Tge amazing job and you will see me every two weeks! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r342446670-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342446670</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r341487211-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -655,9 +946,6 @@
     <t>01/20/2016</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r335133459-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -694,24 +982,66 @@
     <t>Very clean, nicely decorated motel. Unfortunately it is located close to a busy highway and truck stop; however, the overall value of this motel is appealing and I would stay again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r328675478-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328675478</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>great price great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasonably priced. very clean rooms. comfortable beds with lots of pillows. couch with coffee table and separate desk area with chair for computer. fridge with freezer is handy. the usual breakfast fare with lots of seating area. will definitely stay again </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r327959120-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327959120</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Nice and Friendly</t>
+  </si>
+  <si>
+    <t>I stayed here for a week in September and another week in November. The first time wife had made the reservation by phone and asked for a suite but upon arrival we found out that we were not booked for a suite. The young lady, Priyanka, at the desk was very nice and helpful and got us in a suite. The second time I made the reservation online and upon arrival there was a little confusion due to a change of policy. No problem, Priyanka came through again. She is so upbeat, friendly, and helpful.
+The rooms were nice, clean and comfortable. The suite has a small cooktop but no cookware supplied.
+The breakfast was a little better than I expected. They had the normal hotel carb breakfast but they did have some omelets, breakfast tacos, &amp; sausage kolache’s that could be nuked. The gentleman on the night shift did a good job of keeping it stocked and clean.
+The gazebo was a nice addition. It has a BBQ pit and outdoor oven.
+Only problem was getting to the place since the only way in is through the Flying J parking lot. You have to be extra careful not to get run over in that place.
+Wi-Fi was good during the day but terrible in the morning &amp; evenings as it got bogged down.
+You can hear the road noise from the room but that is expected when you book...I stayed here for a week in September and another week in November. The first time wife had made the reservation by phone and asked for a suite but upon arrival we found out that we were not booked for a suite. The young lady, Priyanka, at the desk was very nice and helpful and got us in a suite. The second time I made the reservation online and upon arrival there was a little confusion due to a change of policy. No problem, Priyanka came through again. She is so upbeat, friendly, and helpful.The rooms were nice, clean and comfortable. The suite has a small cooktop but no cookware supplied.The breakfast was a little better than I expected. They had the normal hotel carb breakfast but they did have some omelets, breakfast tacos, &amp; sausage kolache’s that could be nuked. The gentleman on the night shift did a good job of keeping it stocked and clean.The gazebo was a nice addition. It has a BBQ pit and outdoor oven.Only problem was getting to the place since the only way in is through the Flying J parking lot. You have to be extra careful not to get run over in that place.Wi-Fi was good during the day but terrible in the morning &amp; evenings as it got bogged down.You can hear the road noise from the room but that is expected when you book a room next to the interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a week in September and another week in November. The first time wife had made the reservation by phone and asked for a suite but upon arrival we found out that we were not booked for a suite. The young lady, Priyanka, at the desk was very nice and helpful and got us in a suite. The second time I made the reservation online and upon arrival there was a little confusion due to a change of policy. No problem, Priyanka came through again. She is so upbeat, friendly, and helpful.
+The rooms were nice, clean and comfortable. The suite has a small cooktop but no cookware supplied.
+The breakfast was a little better than I expected. They had the normal hotel carb breakfast but they did have some omelets, breakfast tacos, &amp; sausage kolache’s that could be nuked. The gentleman on the night shift did a good job of keeping it stocked and clean.
+The gazebo was a nice addition. It has a BBQ pit and outdoor oven.
+Only problem was getting to the place since the only way in is through the Flying J parking lot. You have to be extra careful not to get run over in that place.
+Wi-Fi was good during the day but terrible in the morning &amp; evenings as it got bogged down.
+You can hear the road noise from the room but that is expected when you book...I stayed here for a week in September and another week in November. The first time wife had made the reservation by phone and asked for a suite but upon arrival we found out that we were not booked for a suite. The young lady, Priyanka, at the desk was very nice and helpful and got us in a suite. The second time I made the reservation online and upon arrival there was a little confusion due to a change of policy. No problem, Priyanka came through again. She is so upbeat, friendly, and helpful.The rooms were nice, clean and comfortable. The suite has a small cooktop but no cookware supplied.The breakfast was a little better than I expected. They had the normal hotel carb breakfast but they did have some omelets, breakfast tacos, &amp; sausage kolache’s that could be nuked. The gentleman on the night shift did a good job of keeping it stocked and clean.The gazebo was a nice addition. It has a BBQ pit and outdoor oven.Only problem was getting to the place since the only way in is through the Flying J parking lot. You have to be extra careful not to get run over in that place.Wi-Fi was good during the day but terrible in the morning &amp; evenings as it got bogged down.You can hear the road noise from the room but that is expected when you book a room next to the interstate.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r327922715-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
     <t>327922715</t>
   </si>
   <si>
-    <t>11/19/2015</t>
-  </si>
-  <si>
     <t>Wonderful room</t>
   </si>
   <si>
     <t xml:space="preserve">They had to have remodeled this hotel because everything was new and clean.  Everything was flawless.  One can tell it was redesigned to stay cleaner longer by using smart products that will hold their appearance over time.  I usually don't stay in outdoor access hotels but this was nicer inside than many of the indoor access types in the same or slighter higher price ranges.   </t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r323080053-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -733,6 +1063,45 @@
     <t>10/25/2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r320539176-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320539176</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>take earplugs and you'll be fine...</t>
+  </si>
+  <si>
+    <t>Really nice hotel - looks either fairly new, or recently renovated. Very clean, the carpets look like they haven't been down very long so weren't worn at all. The bed is really high - so don't go falling out ... you'll get hurt! You almost have to climb onto it.There is no elevator, so if you're on the second level be prepared to carry your luggage up 2 flights of stairs. And being right on the freeway, it is noisy - you don't notice it so much during the day, but once night comes, it is oh so loud.... so make sure you have earplugs.Dennys is right next door too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Really nice hotel - looks either fairly new, or recently renovated. Very clean, the carpets look like they haven't been down very long so weren't worn at all. The bed is really high - so don't go falling out ... you'll get hurt! You almost have to climb onto it.There is no elevator, so if you're on the second level be prepared to carry your luggage up 2 flights of stairs. And being right on the freeway, it is noisy - you don't notice it so much during the day, but once night comes, it is oh so loud.... so make sure you have earplugs.Dennys is right next door too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r316269621-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316269621</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great! </t>
+  </si>
+  <si>
+    <t>A very good place to stay. The rooms are well equipped and everything is very clean and in descent condition. What I like best is that the prices are really fair. Personell also very friendly and helpful. Would come back anytime.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>A very good place to stay. The rooms are well equipped and everything is very clean and in descent condition. What I like best is that the prices are really fair. Personell also very friendly and helpful. Would come back anytime.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r315894814-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -781,6 +1150,42 @@
     <t>This hotel was very nice! Very clean! Everything was updated. The bed was a little more firm than my personal preference but it still slept very well.!! The only thing I was concerned about. I was traveling alone. And most every guest I saw here was male. It seemed like the hotspot for maybe construction workers? So at first I was unsure. But everyone I spoke too (guest wise) was very friendly and that helped put me at ease some. Staff was friendly and very helpful. And the hotel itself is in a good spot.. Not too far of a drive from shopping areas and restaurants. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r308267256-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308267256</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Place to crash, not to relax</t>
+  </si>
+  <si>
+    <t>Free internet, yes.  Wifi very slow though.  Simple breakfast (but they do have a waffle maker in the shape of Texas!).  There is a Denny's next door if you need it, as well as a gas station and convenience store.  Covered patio in the middle of the parking lot with a BBQ to use.  Washer and dryer (small) available to use ($1.50 each).  Television was not HD, very poor quality, but it has several Bollywood channels available to watch if you're into that kinda thing.  This hotel is located on the "main drag" off the highway next to a busy truck rest area so I'm not so sure if you'd consider this a sketchy motel or not, but it was clean and AC was working well so it served our purpose.  Fitness center was only open for three hours (6am to 9am) so that's kinda useless.  Of note, as you approach the motel, the only driveway in is under the gas station sign and across the Denny's parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>Free internet, yes.  Wifi very slow though.  Simple breakfast (but they do have a waffle maker in the shape of Texas!).  There is a Denny's next door if you need it, as well as a gas station and convenience store.  Covered patio in the middle of the parking lot with a BBQ to use.  Washer and dryer (small) available to use ($1.50 each).  Television was not HD, very poor quality, but it has several Bollywood channels available to watch if you're into that kinda thing.  This hotel is located on the "main drag" off the highway next to a busy truck rest area so I'm not so sure if you'd consider this a sketchy motel or not, but it was clean and AC was working well so it served our purpose.  Fitness center was only open for three hours (6am to 9am) so that's kinda useless.  Of note, as you approach the motel, the only driveway in is under the gas station sign and across the Denny's parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r307754090-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307754090</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Great for Days Inn</t>
+  </si>
+  <si>
+    <t>Recently remodeled and very comfortable room. TV not yet HD. Neighborhood not great but right off I45 and next to Denny's and gas. Would stay here again. 20 minutes to town and convenient to everything northwest. Nice breakfast. Fridge, microwave, and coffee in room. Laundry on premises. MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently remodeled and very comfortable room. TV not yet HD. Neighborhood not great but right off I45 and next to Denny's and gas. Would stay here again. 20 minutes to town and convenient to everything northwest. Nice breakfast. Fridge, microwave, and coffee in room. Laundry on premises. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r298453207-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -835,6 +1240,36 @@
     <t>Hotel room was large with small sofa, refrigerator and microwave. There was a large flat-screen T.V. in excellent condition. The room was new, clean and fresh. The cleaning service was excellent. The free breakfast was the best that I have run across in these types of properties; it consisted of the typical fare plus hot waffles, regular and low-fat milk, and many types of microwaveable breakfast packs. A computer with printer was available in the lobby. The management was nice, polite and responsive to our needs. A Denney's Restaurant is located next to the hotel and is open 24 hours. Overall, an excellent experience.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r297358519-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297358519</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r294573622-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294573622</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>This hotel seems to be newer. It even smells new. I was a little leary when looking on trip advisor because most of the pics are from the hotel 'management'. But, our room looked exactly like the the pics. The hotel, outside, looked just like the pics. The room was nice. It was clean and comfortable. The water pressure was a little Overall, I'm glad that we stayed there. Great value, this hotel was.The hotel is right next to Denny's and a Flying J. I saw that one reviewer put that that made them uncomfortable. For me, though, it was fine. Me and my teenage son stayed there and neither of us felt unsafe. There was a guard on duty, in the hotel parking lot, all three nights we were there so I'm guessing that is a regular thing.I noticed that there were a few people that hung around the Flying J that weren't truckers but they didn't affect our stay. The hotel is about 20 minutes from downtown Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This hotel seems to be newer. It even smells new. I was a little leary when looking on trip advisor because most of the pics are from the hotel 'management'. But, our room looked exactly like the the pics. The hotel, outside, looked just like the pics. The room was nice. It was clean and comfortable. The water pressure was a little Overall, I'm glad that we stayed there. Great value, this hotel was.The hotel is right next to Denny's and a Flying J. I saw that one reviewer put that that made them uncomfortable. For me, though, it was fine. Me and my teenage son stayed there and neither of us felt unsafe. There was a guard on duty, in the hotel parking lot, all three nights we were there so I'm guessing that is a regular thing.I noticed that there were a few people that hung around the Flying J that weren't truckers but they didn't affect our stay. The hotel is about 20 minutes from downtown Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r288950250-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -844,9 +1279,6 @@
     <t>07/14/2015</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r287981939-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -865,6 +1297,33 @@
     <t>07/10/2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r287633579-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287633579</t>
+  </si>
+  <si>
+    <t>The rooms were nicely decorated. Bathrooms were clean. The...</t>
+  </si>
+  <si>
+    <t>The rooms were nicely decorated. Bathrooms were clean. The front desk was helpfulThe internet was too secure. I   couldnt download an excel document from my boss. Quick access to I-45. Conviently located next to a restaurant and gas stationMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>The rooms were nicely decorated. Bathrooms were clean. The front desk was helpfulThe internet was too secure. I   couldnt download an excel document from my boss. Quick access to I-45. Conviently located next to a restaurant and gas stationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r286515018-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286515018</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r280339847-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -872,9 +1331,6 @@
   </si>
   <si>
     <t>06/15/2015</t>
-  </si>
-  <si>
-    <t>June 2015</t>
   </si>
   <si>
     <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded September 13, 2015</t>
@@ -920,9 +1376,6 @@
     The management is clearly from India, and interestingly, there are about a dozen Indian language channels on the TV.  The complimentary breakfast is a cut above average, because they emphasize healthy options.  There is an abundance of fresh fruit -  bananas and apples, mostly -- along with oatmeal, waffles, fruit juices, yogurt, and less of the standard fare.  No greasy sausages and gravy.  Only a few...I came to Houston with a friend for one night, to catch a couple of Astros games.  Chose this place for the good reviews on Trip Advisor, and the price.      Found the staff professional, friendly, and helpful.  They checked us into a room that wasn't yet made up, but when I called the desk to report this, they immediately switched us to another room, so that was no big deal.      The place is new, and spotlessly clean.  There was no channel guide for the TV, either printed or on the TV itself, but that was no big deal either.  The shower has an adjustable head, which I found nice, and unexpected in this price range.  The beds were comfortable.  I got a good night's sleep.      The place is a little interesting to get to.  You drive thru the parking lot of a Denny's to reach the parking lot of the hotel.  The same parking lot also serves a large convenience store called Flying J's, and the Denny's is actually in that building as well.      The management is clearly from India, and interestingly, there are about a dozen Indian language channels on the TV.  The complimentary breakfast is a cut above average, because they emphasize healthy options.  There is an abundance of fresh fruit -  bananas and apples, mostly -- along with oatmeal, waffles, fruit juices, yogurt, and less of the standard fare.  No greasy sausages and gravy.  Only a few sugary sweet rolls.  The synthetic eggs are tucked away discreetly in a refrigerated case with the milk.      The hotel is in an L-shape, with all the rooms facing the parking lot  The lower numbered rooms on each floor face south.  The higher numbered rooms face east.  Though the place is right on a busy freeway, we were not bothered by any noise.  It was quiet and peaceful.  And when the sun rose in the morning, we did not know, as the curtains do a good job of blocking out the light.  Walking out the front door into the morning sun was a bit fierce, so if that matters to you, get a south-facing room.      All in all, it was much nicer than you would expect, for a hotel in this price range.      They have made an interesting design choice.  Where most American motels would put a swimming pool, they have chosen to put an outdoor grilling and dining area, complete with very impressive new grills and tables for 6, with very comfortable and attractive cloth cushions.  I think they are going to find this area will not be used much, but I would not mind being wrong about that.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I came to Houston with a friend for one night, to catch a couple of Astros games.  Chose this place for the good reviews on Trip Advisor, and the price.  
     Found the staff professional, friendly, and helpful.  They checked us into a room that wasn't yet made up, but when I called the desk to report this, they immediately switched us to another room, so that was no big deal.  
     The place is new, and spotlessly clean.  There was no channel guide for the TV, either printed or on the TV itself, but that was no big deal either.  The shower has an adjustable head, which I found nice, and unexpected in this price range.  The beds were comfortable.  I got a good night's sleep.  
@@ -930,6 +1383,45 @@
     The management is clearly from India, and interestingly, there are about a dozen Indian language channels on the TV.  The complimentary breakfast is a cut above average, because they emphasize healthy options.  There is an abundance of fresh fruit -  bananas and apples, mostly -- along with oatmeal, waffles, fruit juices, yogurt, and less of the standard fare.  No greasy sausages and gravy.  Only a few...I came to Houston with a friend for one night, to catch a couple of Astros games.  Chose this place for the good reviews on Trip Advisor, and the price.      Found the staff professional, friendly, and helpful.  They checked us into a room that wasn't yet made up, but when I called the desk to report this, they immediately switched us to another room, so that was no big deal.      The place is new, and spotlessly clean.  There was no channel guide for the TV, either printed or on the TV itself, but that was no big deal either.  The shower has an adjustable head, which I found nice, and unexpected in this price range.  The beds were comfortable.  I got a good night's sleep.      The place is a little interesting to get to.  You drive thru the parking lot of a Denny's to reach the parking lot of the hotel.  The same parking lot also serves a large convenience store called Flying J's, and the Denny's is actually in that building as well.      The management is clearly from India, and interestingly, there are about a dozen Indian language channels on the TV.  The complimentary breakfast is a cut above average, because they emphasize healthy options.  There is an abundance of fresh fruit -  bananas and apples, mostly -- along with oatmeal, waffles, fruit juices, yogurt, and less of the standard fare.  No greasy sausages and gravy.  Only a few sugary sweet rolls.  The synthetic eggs are tucked away discreetly in a refrigerated case with the milk.      The hotel is in an L-shape, with all the rooms facing the parking lot  The lower numbered rooms on each floor face south.  The higher numbered rooms face east.  Though the place is right on a busy freeway, we were not bothered by any noise.  It was quiet and peaceful.  And when the sun rose in the morning, we did not know, as the curtains do a good job of blocking out the light.  Walking out the front door into the morning sun was a bit fierce, so if that matters to you, get a south-facing room.      All in all, it was much nicer than you would expect, for a hotel in this price range.      They have made an interesting design choice.  Where most American motels would put a swimming pool, they have chosen to put an outdoor grilling and dining area, complete with very impressive new grills and tables for 6, with very comfortable and attractive cloth cushions.  I think they are going to find this area will not be used much, but I would not mind being wrong about that.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r273841599-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273841599</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Superior customer service!</t>
+  </si>
+  <si>
+    <t>My husband and I travel a lot and this Days Inn is by far one of the best hotels we have stayed at.  The staff was extremely friendly and the rooms were very clean.  I forgot to pack my son's favorite pillow in the room we stayed in and the manager generously mailed it back to us.  Superior customer service!  If we find ourselves in Houston again, we know where we're staying! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My husband and I travel a lot and this Days Inn is by far one of the best hotels we have stayed at.  The staff was extremely friendly and the rooms were very clean.  I forgot to pack my son's favorite pillow in the room we stayed in and the manager generously mailed it back to us.  Superior customer service!  If we find ourselves in Houston again, we know where we're staying! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r273435483-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273435483</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Some road noise, very close to hiway, convenient location</t>
+  </si>
+  <si>
+    <t>Overall a good place for the price. Not a picturesque location being close to the highway and industrial and retail built up business area. But very convenient to the highway. Newer hotel. Good breakfast. Nice helpful staff. Main area of improvement is internet speed.  Everyone uses it nowadays. Gotta be faster than 1mbps and it never was.  They tried to correct it but there was no solution.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall a good place for the price. Not a picturesque location being close to the highway and industrial and retail built up business area. But very convenient to the highway. Newer hotel. Good breakfast. Nice helpful staff. Main area of improvement is internet speed.  Everyone uses it nowadays. Gotta be faster than 1mbps and it never was.  They tried to correct it but there was no solution.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r273170967-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -945,9 +1437,6 @@
     <t>Very nice and clean.  Also enjoyed the outdoor cooking and entertainment area.  Convenient location to Houston and The Woodlands.  Will definitely stay again.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>Very nice and clean.  Also enjoyed the outdoor cooking and entertainment area.  Convenient location to Houston and The Woodlands.  Will definitely stay again.More</t>
   </si>
   <si>
@@ -972,6 +1461,42 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r268591782-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268591782</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Brand spanking new!</t>
+  </si>
+  <si>
+    <t>We are using this Days Inn on a weekly basis while we stop over in Houston.Its a new motel so everything is spic and span.Decor is modern and the rooms are well appointed with a sofa or lounge chair depending on size.Each room has a microwave and good size fridge.There is an exercise room with treadmill etc. No weight machine.Location is good for us with our work place nearby, IAH airport closeby, and its between The Woodlands and Houston City.Best thing for us are the staff - front desk are friendly and understand our needs, and the cleaning staff are also friendly and do an excellent job.Its the quality of the cleaning staff that can make or break a hotel's reputation and the ladies here are a real asset!Its next door to a Flying J gas and truck stop so truck parking is there as is a newly renovated Denny's Restaurant and the FJ's convenience store.This will be our weekly Houston home for the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>We are using this Days Inn on a weekly basis while we stop over in Houston.Its a new motel so everything is spic and span.Decor is modern and the rooms are well appointed with a sofa or lounge chair depending on size.Each room has a microwave and good size fridge.There is an exercise room with treadmill etc. No weight machine.Location is good for us with our work place nearby, IAH airport closeby, and its between The Woodlands and Houston City.Best thing for us are the staff - front desk are friendly and understand our needs, and the cleaning staff are also friendly and do an excellent job.Its the quality of the cleaning staff that can make or break a hotel's reputation and the ladies here are a real asset!Its next door to a Flying J gas and truck stop so truck parking is there as is a newly renovated Denny's Restaurant and the FJ's convenience store.This will be our weekly Houston home for the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r268393049-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268393049</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Clean and new</t>
+  </si>
+  <si>
+    <t>This is a very clean and new hotel. The staff is friendly and the room and mattress is comfortable. The breakfast was good as well.I would recommend this hotel to a friend.Has nice outdoor area with grill, tables and TVMoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very clean and new hotel. The staff is friendly and the room and mattress is comfortable. The breakfast was good as well.I would recommend this hotel to a friend.Has nice outdoor area with grill, tables and TVMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r267387630-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1533,33 @@
     <t>04/13/2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r265296553-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265296553</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r262881933-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262881933</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded May 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r262558206-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -1023,15 +1575,6 @@
     <t>This is a very safe and clean environment. The wonderful customer service representatives were very friendly and completed my service in a timely manner. Great to know Denny's just a few steps ahead!, Falck courses training center are just a few steps ahead.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
-    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded May 31, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 31, 2015</t>
-  </si>
-  <si>
     <t>This is a very safe and clean environment. The wonderful customer service representatives were very friendly and completed my service in a timely manner. Great to know Denny's just a few steps ahead!, Falck courses training center are just a few steps ahead.More</t>
   </si>
   <si>
@@ -1065,6 +1608,45 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r256397263-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256397263</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>An excellent place to stay</t>
+  </si>
+  <si>
+    <t>This is by far the best Hotel I've ever stayed in Houston. I cannot think of any negatives about this place during my stay here. The hotel was clean and the staff were very friendly. I was really impressed with the room overall. The breakfast served is really nice and impressed me alot. The location is great right off the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is by far the best Hotel I've ever stayed in Houston. I cannot think of any negatives about this place during my stay here. The hotel was clean and the staff were very friendly. I was really impressed with the room overall. The breakfast served is really nice and impressed me alot. The location is great right off the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r251786957-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251786957</t>
+  </si>
+  <si>
+    <t>01/30/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Brand new, wonderful front desk staff, and clean quiet room.  Convenient location.  I will stay here again MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Brand new, wonderful front desk staff, and clean quiet room.  Convenient location.  I will stay here again More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r250245182-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -1080,9 +1662,6 @@
     <t>The rest of the hotels in the area have cock roaches.  This hotel is perfectly clean, all staff are extremely nice.  We added on extra days, and they continued our great online rate.  Free WiFi was a plus.  Small clean fitness facility, free breakfast. Close to everything we needed.MoreShow less</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
     <t>The rest of the hotels in the area have cock roaches.  This hotel is perfectly clean, all staff are extremely nice.  We added on extra days, and they continued our great online rate.  Free WiFi was a plus.  Small clean fitness facility, free breakfast. Close to everything we needed.More</t>
   </si>
   <si>
@@ -1122,6 +1701,51 @@
     <t>I stayed for three nights while on business. The personnel were all very courteous and made me fill welcome. I can't say enough about how clean the room was. I would recommend this hotel to friends and family. My stay was excellent!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r241985985-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241985985</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>pete l.</t>
+  </si>
+  <si>
+    <t>Excellent. Brand new. Clean. Great staff. Worth every penny. Truck parking next door at Flying J. Would love to see more hotels like this. The one downfall is really nothing in walking distance. Otherwise definitely best Days Inn I have ever been toMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Sunny P, Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Excellent. Brand new. Clean. Great staff. Worth every penny. Truck parking next door at Flying J. Would love to see more hotels like this. The one downfall is really nothing in walking distance. Otherwise definitely best Days Inn I have ever been toMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r239985937-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239985937</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>The room was large and  was clean and super comfortable. The bathroom was very, very clean and spacious.  Close to restaurants'  the highway, we will definitely stay there again, one of the best hotels I have stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was large and  was clean and super comfortable. The bathroom was very, very clean and spacious.  Close to restaurants'  the highway, we will definitely stay there again, one of the best hotels I have stayed in.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r238660325-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1797,39 @@
     <t>I stayed here for a week. The room was very clean and the staff is friendly. I was pleasantly surprised at the cleanliness of the rooms. The area it's in isn't the best, but they have security during the night and the entire place a nice fence around it. I was a little worried that someone might tamper with my car, but I had nothing to worry about. I would stay againMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r236275622-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236275622</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>Sketchy Location but clean room..</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice, new and clean. However, the hotel is not located in a place that will give you piece of mind. I don't recommend staying here especially if you have a family because the hotel is located right next to a truck stop. If you can overlook that then the room was new and clean..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r235436676-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235436676</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>One of the best hotels we have stayed in. Will tell friends and will stay again.Thanks to the management for a wonderful experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>One of the best hotels we have stayed in. Will tell friends and will stay again.Thanks to the management for a wonderful experience.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r233574823-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1890,48 @@
     <t>I had room 111. This has to be one of the best hotel room I have had. Very clean, everything was either recently updated or new. Awesome like 9ft ceilings.  Lights built into the ceiling.  Bathroom was super clean. And towels were nice and white and plushy. If im ever in the area again its a must stay. The outside gazebo area was really nice too. Very clean over all and the bed was fantastic,  the best night sleep I have ever had at a hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r228438993-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228438993</t>
+  </si>
+  <si>
+    <t>The best!</t>
+  </si>
+  <si>
+    <t>Brand new.  Rooms are huge and super clean.  The carpet is luxurious--wow!  Staff try very hard to please.  The best Days Inn I've been to so far.  Very reasonably priced for the value.  Convenient location.  This is my favorite Days Inn for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new.  Rooms are huge and super clean.  The carpet is luxurious--wow!  Staff try very hard to please.  The best Days Inn I've been to so far.  Very reasonably priced for the value.  Convenient location.  This is my favorite Days Inn for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r226794641-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226794641</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Very relaxing place!</t>
+  </si>
+  <si>
+    <t>We came to Houston from Ft Worth and weren't prepared with a place to stay so we looked and looked and came across Days Inn and it looked immaculate so we stopped. The place is incredibly nice and clean for being an outside hotel with great attendants making sure everything was okay. The place was way worth the price, that when we come back this will be the place we will stay. Also to add that the view was beautiful morning and night!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded September 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2014</t>
+  </si>
+  <si>
+    <t>We came to Houston from Ft Worth and weren't prepared with a place to stay so we looked and looked and came across Days Inn and it looked immaculate so we stopped. The place is incredibly nice and clean for being an outside hotel with great attendants making sure everything was okay. The place was way worth the price, that when we come back this will be the place we will stay. Also to add that the view was beautiful morning and night!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6610271-r225126154-Days_Inn_Suites_by_Wyndham_Houston_North_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -1246,15 +1945,6 @@
   </si>
   <si>
     <t>Clean room, friendly &amp; helpful Front Desk clerk.  This was my first time in Houston and my GPS in the rental car stopped working and my mapquest directions had me lost. Called the motel and the girl was very knowledgeable of the area and got me there without any more problems.MoreShow less</t>
-  </si>
-  <si>
-    <t>August 2014</t>
-  </si>
-  <si>
-    <t>Sunny P, General Manager at Days Inn &amp; Suites by Wyndham Houston North-Spring, responded to this reviewResponded September 7, 2014</t>
-  </si>
-  <si>
-    <t>Responded September 7, 2014</t>
   </si>
   <si>
     <t>Clean room, friendly &amp; helpful Front Desk clerk.  This was my first time in Houston and my GPS in the rental car stopped working and my mapquest directions had me lost. Called the motel and the girl was very knowledgeable of the area and got me there without any more problems.More</t>
@@ -1831,7 +2521,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1839,12 +2529,22 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1888,30 +2588,20 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1934,53 +2624,59 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1995,7 +2691,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2004,36 +2700,44 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" t="s">
         <v>68</v>
       </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
       <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
-      <c r="Y5" t="s">
-        <v>68</v>
-      </c>
+      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2048,58 +2752,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -2115,7 +2809,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2124,44 +2818,40 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2176,7 +2866,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2185,10 +2875,10 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
         <v>82</v>
@@ -2197,37 +2887,23 @@
         <v>83</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>86</v>
-      </c>
-      <c r="X8" t="s">
-        <v>87</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -2243,52 +2919,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>94</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" t="s">
-        <v>96</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -2304,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2313,28 +2995,24 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>5</v>
@@ -2352,15 +3030,9 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>104</v>
-      </c>
-      <c r="X10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>106</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2375,7 +3047,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2384,43 +3056,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>113</v>
-      </c>
-      <c r="X11" t="s">
-        <v>114</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -2436,7 +3114,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2445,51 +3123,53 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -2505,7 +3185,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2514,51 +3194,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="X13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2574,7 +3252,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2583,49 +3261,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>113</v>
-      </c>
-      <c r="X14" t="s">
-        <v>114</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -2641,7 +3309,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2650,47 +3318,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>130</v>
+      </c>
+      <c r="X15" t="s">
+        <v>131</v>
+      </c>
       <c r="Y15" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -2706,7 +3370,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2715,53 +3379,53 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="X16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2777,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2786,26 +3450,26 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
@@ -2824,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="X17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Y17" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -2846,52 +3510,62 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
         <v>153</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>154</v>
       </c>
-      <c r="J18" t="s">
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
         <v>155</v>
       </c>
-      <c r="K18" t="s">
+      <c r="X18" t="s">
         <v>156</v>
       </c>
-      <c r="L18" t="s">
+      <c r="Y18" t="s">
         <v>157</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>150</v>
-      </c>
-      <c r="O18" t="s">
-        <v>103</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
-      <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
-        <v>151</v>
-      </c>
-      <c r="X18" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -2907,62 +3581,52 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>159</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>160</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>161</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>162</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>163</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>164</v>
       </c>
-      <c r="O19" t="s">
-        <v>85</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
-      <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>165</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>166</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -2978,58 +3642,60 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
         <v>168</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>169</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
         <v>170</v>
       </c>
-      <c r="K20" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>173</v>
-      </c>
       <c r="O20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
       <c r="Q20" t="n">
         <v>4</v>
       </c>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
       <c r="S20" t="n">
         <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -3045,7 +3711,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3054,49 +3720,51 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" t="s">
-        <v>179</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
@@ -3112,7 +3780,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3121,53 +3789,51 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" t="s">
-        <v>185</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="X22" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23">
@@ -3183,62 +3849,52 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
         <v>189</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="X23" t="s">
         <v>190</v>
       </c>
-      <c r="J23" t="s">
+      <c r="Y23" t="s">
         <v>191</v>
-      </c>
-      <c r="K23" t="s">
-        <v>192</v>
-      </c>
-      <c r="L23" t="s">
-        <v>193</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" t="s">
-        <v>103</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
-        <v>174</v>
-      </c>
-      <c r="X23" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="24">
@@ -3254,42 +3910,40 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
         <v>196</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>197</v>
-      </c>
-      <c r="J24" t="s">
-        <v>198</v>
-      </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s">
-        <v>119</v>
-      </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
         <v>5</v>
       </c>
@@ -3301,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="X24" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Y24" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
@@ -3323,34 +3977,32 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
         <v>200</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J25" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" t="s">
-        <v>203</v>
-      </c>
+      <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3359,7 +4011,7 @@
         <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3371,14 +4023,10 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>205</v>
-      </c>
-      <c r="X25" t="s">
-        <v>206</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
@@ -3394,7 +4042,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3403,51 +4051,53 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
       <c r="L26" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y26" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27">
@@ -3463,54 +4113,62 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
         <v>212</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>213</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>214</v>
       </c>
-      <c r="K27" t="s">
-        <v>215</v>
-      </c>
-      <c r="L27" t="s">
-        <v>216</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>217</v>
-      </c>
       <c r="O27" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
         <v>3</v>
       </c>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>189</v>
+      </c>
+      <c r="X27" t="s">
+        <v>190</v>
+      </c>
       <c r="Y27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
@@ -3526,7 +4184,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3535,30 +4193,36 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
-      </c>
-      <c r="K28" t="s">
-        <v>222</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3566,10 +4230,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>189</v>
+      </c>
+      <c r="X28" t="s">
+        <v>190</v>
+      </c>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
@@ -3585,58 +4253,52 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>189</v>
+      </c>
+      <c r="X29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y29" t="s">
         <v>224</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>225</v>
-      </c>
-      <c r="J29" t="s">
-        <v>226</v>
-      </c>
-      <c r="K29" t="s">
-        <v>227</v>
-      </c>
-      <c r="L29" t="s">
-        <v>228</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>229</v>
-      </c>
-      <c r="O29" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
-      <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="30">
@@ -3652,53 +4314,63 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>230</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>231</v>
-      </c>
-      <c r="J30" t="s">
-        <v>232</v>
-      </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>233</v>
-      </c>
       <c r="O30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
+      <c r="W30" t="s">
+        <v>155</v>
+      </c>
+      <c r="X30" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3713,60 +4385,52 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" t="s">
         <v>234</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>235</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>236</v>
       </c>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s">
-        <v>119</v>
-      </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="X31" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="Y31" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
@@ -3782,7 +4446,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3791,51 +4455,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
-      </c>
-      <c r="K32" t="s"/>
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
       <c r="L32" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="X32" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="Y32" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
@@ -3851,7 +4507,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3860,43 +4516,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
         <v>243</v>
       </c>
-      <c r="K33" t="s">
+      <c r="O33" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>244</v>
       </c>
-      <c r="L33" t="s">
+      <c r="X33" t="s">
         <v>245</v>
       </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>240</v>
-      </c>
-      <c r="O33" t="s">
-        <v>103</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
-      <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>205</v>
-      </c>
-      <c r="X33" t="s">
-        <v>206</v>
-      </c>
       <c r="Y33" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34">
@@ -3912,7 +4574,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3921,43 +4583,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J34" t="s">
         <v>249</v>
       </c>
       <c r="K34" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s">
-        <v>85</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="X34" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="Y34" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
@@ -3973,7 +4641,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3982,28 +4650,28 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="J35" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O35" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
@@ -4022,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="X35" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="Y35" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -4044,7 +4712,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4053,49 +4721,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="J36" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
         <v>263</v>
       </c>
-      <c r="L36" t="s">
-        <v>264</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>258</v>
-      </c>
       <c r="O36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>205</v>
-      </c>
-      <c r="X36" t="s">
-        <v>206</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -4111,7 +4769,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4120,49 +4778,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J37" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K37" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O37" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="X37" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="Y37" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38">
@@ -4178,7 +4836,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4187,26 +4845,28 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J38" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" t="s"/>
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
       <c r="L38" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O38" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
@@ -4215,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4225,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="X38" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="Y38" t="s">
-        <v>123</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39">
@@ -4247,7 +4907,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4256,26 +4916,26 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="J39" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="O39" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
         <v>5</v>
@@ -4288,19 +4948,19 @@
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="X39" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="Y39" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
@@ -4316,7 +4976,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4325,51 +4985,53 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="J40" t="s">
-        <v>280</v>
-      </c>
-      <c r="K40" t="s"/>
+        <v>289</v>
+      </c>
+      <c r="K40" t="s">
+        <v>290</v>
+      </c>
       <c r="L40" t="s">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="X40" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41">
@@ -4385,7 +5047,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4394,23 +5056,25 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
-      </c>
-      <c r="K41" t="s"/>
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
       <c r="L41" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4432,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="X41" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
@@ -4454,7 +5118,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4463,43 +5127,51 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="J42" t="s">
-        <v>289</v>
-      </c>
-      <c r="K42" t="s">
-        <v>290</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s">
-        <v>85</v>
-      </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="X42" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="Y42" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
@@ -4515,7 +5187,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4524,31 +5196,33 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="J43" t="s">
-        <v>295</v>
-      </c>
-      <c r="K43" t="s">
-        <v>296</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>297</v>
+        <v>144</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="O43" t="s">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -4560,13 +5234,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="X43" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Y43" t="s">
-        <v>299</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44">
@@ -4582,7 +5256,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4591,53 +5265,45 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
         <v>5</v>
       </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>285</v>
-      </c>
-      <c r="X44" t="s">
-        <v>286</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
@@ -4653,7 +5319,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4662,36 +5328,30 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
-      </c>
-      <c r="K45" t="s"/>
+        <v>317</v>
+      </c>
+      <c r="K45" t="s">
+        <v>318</v>
+      </c>
       <c r="L45" t="s">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4699,14 +5359,10 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>285</v>
-      </c>
-      <c r="X45" t="s">
-        <v>286</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46">
@@ -4722,7 +5378,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4731,36 +5387,30 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="J46" t="s">
-        <v>312</v>
-      </c>
-      <c r="K46" t="s"/>
+        <v>322</v>
+      </c>
+      <c r="K46" t="s">
+        <v>323</v>
+      </c>
       <c r="L46" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4768,14 +5418,10 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>285</v>
-      </c>
-      <c r="X46" t="s">
-        <v>286</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
@@ -4791,7 +5437,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4800,33 +5446,31 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="J47" t="s">
-        <v>316</v>
-      </c>
-      <c r="K47" t="s"/>
+        <v>328</v>
+      </c>
+      <c r="K47" t="s">
+        <v>329</v>
+      </c>
       <c r="L47" t="s">
-        <v>119</v>
+        <v>330</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="O47" t="s">
         <v>53</v>
       </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
         <v>5</v>
       </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
         <v>5</v>
       </c>
@@ -4838,13 +5482,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="X47" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Y47" t="s">
-        <v>123</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48">
@@ -4860,7 +5504,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4869,34 +5513,38 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="J48" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="K48" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="O48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4904,14 +5552,10 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>285</v>
-      </c>
-      <c r="X48" t="s">
-        <v>286</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
@@ -4927,7 +5571,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4936,35 +5580,33 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="J49" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="K49" t="s"/>
-      <c r="L49" t="s">
-        <v>119</v>
-      </c>
+      <c r="L49" t="s"/>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="O49" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
         <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -4973,15 +5615,9 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>285</v>
-      </c>
-      <c r="X49" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>123</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4996,7 +5632,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5005,49 +5641,51 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="J50" t="s">
-        <v>328</v>
-      </c>
-      <c r="K50" t="s">
-        <v>329</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="O50" t="s">
-        <v>103</v>
-      </c>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="X50" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="Y50" t="s">
-        <v>334</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51">
@@ -5063,7 +5701,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5072,49 +5710,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J51" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K51" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L51" t="s">
+        <v>347</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
         <v>339</v>
       </c>
-      <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s">
-        <v>331</v>
-      </c>
       <c r="O51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P51" t="s"/>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>332</v>
-      </c>
-      <c r="X51" t="s">
-        <v>333</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52">
@@ -5130,7 +5762,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5139,51 +5771,43 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="J52" t="s">
-        <v>343</v>
-      </c>
-      <c r="K52" t="s"/>
+        <v>351</v>
+      </c>
+      <c r="K52" t="s">
+        <v>352</v>
+      </c>
       <c r="L52" t="s">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O52" t="s">
-        <v>103</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>5</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="X52" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="Y52" t="s">
-        <v>123</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53">
@@ -5199,7 +5823,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5208,31 +5832,33 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="J53" t="s">
-        <v>347</v>
-      </c>
-      <c r="K53" t="s">
-        <v>348</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
       <c r="Q53" t="n">
         <v>5</v>
       </c>
-      <c r="R53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
       <c r="S53" t="n">
         <v>5</v>
       </c>
@@ -5244,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="X53" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="Y53" t="s">
-        <v>351</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
@@ -5266,7 +5892,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5275,49 +5901,43 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J54" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O54" t="s">
-        <v>103</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="X54" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="Y54" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55">
@@ -5333,7 +5953,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5342,49 +5962,43 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
+        <v>367</v>
+      </c>
+      <c r="J55" t="s">
+        <v>368</v>
+      </c>
+      <c r="K55" t="s">
+        <v>369</v>
+      </c>
+      <c r="L55" t="s">
+        <v>370</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
         <v>359</v>
       </c>
-      <c r="J55" t="s">
-        <v>360</v>
-      </c>
-      <c r="K55" t="s">
-        <v>361</v>
-      </c>
-      <c r="L55" t="s">
-        <v>362</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="O55" t="s">
+        <v>100</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="X55" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56">
@@ -5400,7 +6014,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5409,51 +6023,47 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="J56" t="s">
-        <v>366</v>
-      </c>
-      <c r="K56" t="s"/>
+        <v>374</v>
+      </c>
+      <c r="K56" t="s">
+        <v>375</v>
+      </c>
       <c r="L56" t="s">
-        <v>119</v>
+        <v>376</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="X56" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="Y56" t="s">
-        <v>123</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57">
@@ -5469,7 +6079,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5478,51 +6088,43 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="J57" t="s">
-        <v>372</v>
-      </c>
-      <c r="K57" t="s"/>
+        <v>380</v>
+      </c>
+      <c r="K57" t="s">
+        <v>381</v>
+      </c>
       <c r="L57" t="s">
-        <v>119</v>
+        <v>382</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2</v>
-      </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>2</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="X57" t="s">
-        <v>374</v>
+        <v>293</v>
       </c>
       <c r="Y57" t="s">
-        <v>123</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58">
@@ -5538,7 +6140,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5547,29 +6149,35 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="J58" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="K58" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="L58" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="O58" t="s">
-        <v>103</v>
-      </c>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
       <c r="S58" t="n">
         <v>5</v>
       </c>
@@ -5581,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="X58" t="s">
-        <v>374</v>
+        <v>293</v>
       </c>
       <c r="Y58" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59">
@@ -5603,7 +6211,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5612,33 +6220,31 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J59" t="s">
-        <v>383</v>
-      </c>
-      <c r="K59" t="s"/>
+        <v>393</v>
+      </c>
+      <c r="K59" t="s">
+        <v>394</v>
+      </c>
       <c r="L59" t="s">
-        <v>119</v>
+        <v>395</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
-        <v>3</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
         <v>5</v>
       </c>
@@ -5650,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="X59" t="s">
-        <v>374</v>
+        <v>293</v>
       </c>
       <c r="Y59" t="s">
-        <v>123</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60">
@@ -5672,7 +6278,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5681,43 +6287,49 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="J60" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K60" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="L60" t="s">
+        <v>400</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
         <v>389</v>
       </c>
-      <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" t="s">
-        <v>384</v>
-      </c>
       <c r="O60" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
       <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="X60" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61">
@@ -5733,7 +6345,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5742,34 +6354,36 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="J61" t="s">
-        <v>395</v>
-      </c>
-      <c r="K61" t="s">
-        <v>396</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="O61" t="s">
-        <v>85</v>
-      </c>
-      <c r="P61" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
       <c r="Q61" t="n">
         <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
         <v>5</v>
@@ -5778,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>398</v>
+        <v>292</v>
       </c>
       <c r="X61" t="s">
-        <v>399</v>
+        <v>293</v>
       </c>
       <c r="Y61" t="s">
-        <v>400</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
@@ -5800,7 +6414,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5809,47 +6423,43 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="J62" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K62" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L62" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O62" t="s">
-        <v>103</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
       <c r="R62" t="s"/>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="X62" t="s">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="Y62" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63">
@@ -5865,46 +6475,44 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
+        <v>412</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>413</v>
+      </c>
+      <c r="J63" t="s">
+        <v>414</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s">
+        <v>144</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
         <v>410</v>
       </c>
-      <c r="G63" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I63" t="s">
-        <v>411</v>
-      </c>
-      <c r="J63" t="s">
-        <v>412</v>
-      </c>
-      <c r="K63" t="s">
-        <v>413</v>
-      </c>
-      <c r="L63" t="s">
-        <v>414</v>
-      </c>
-      <c r="M63" t="n">
-        <v>5</v>
-      </c>
-      <c r="N63" t="s">
-        <v>406</v>
-      </c>
       <c r="O63" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
         <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
@@ -5914,13 +6522,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="X63" t="s">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="Y63" t="s">
-        <v>415</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64">
@@ -5936,52 +6544,2829 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
+        <v>415</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
         <v>416</v>
       </c>
-      <c r="G64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>417</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s"/>
+      <c r="L64" t="s">
+        <v>144</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>410</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>292</v>
+      </c>
+      <c r="X64" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
         <v>418</v>
       </c>
-      <c r="K64" t="s">
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
         <v>419</v>
       </c>
-      <c r="L64" t="s">
+      <c r="J65" t="s">
         <v>420</v>
       </c>
-      <c r="M64" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>144</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>410</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>292</v>
+      </c>
+      <c r="X65" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
         <v>421</v>
       </c>
-      <c r="O64" t="s">
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>422</v>
+      </c>
+      <c r="J66" t="s">
+        <v>420</v>
+      </c>
+      <c r="K66" t="s">
+        <v>423</v>
+      </c>
+      <c r="L66" t="s">
+        <v>424</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>425</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>292</v>
+      </c>
+      <c r="X66" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>427</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>428</v>
+      </c>
+      <c r="J67" t="s">
+        <v>429</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>144</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>410</v>
+      </c>
+      <c r="O67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>292</v>
+      </c>
+      <c r="X67" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>430</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>431</v>
+      </c>
+      <c r="J68" t="s">
+        <v>432</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s">
+        <v>144</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>425</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>433</v>
+      </c>
+      <c r="X68" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>435</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>436</v>
+      </c>
+      <c r="J69" t="s">
+        <v>437</v>
+      </c>
+      <c r="K69" t="s">
+        <v>438</v>
+      </c>
+      <c r="L69" t="s">
+        <v>439</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>425</v>
+      </c>
+      <c r="O69" t="s">
+        <v>100</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>292</v>
+      </c>
+      <c r="X69" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>442</v>
+      </c>
+      <c r="J70" t="s">
+        <v>443</v>
+      </c>
+      <c r="K70" t="s">
+        <v>444</v>
+      </c>
+      <c r="L70" t="s">
+        <v>445</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>425</v>
+      </c>
+      <c r="O70" t="s">
+        <v>354</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>433</v>
+      </c>
+      <c r="X70" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>447</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>448</v>
+      </c>
+      <c r="J71" t="s">
+        <v>449</v>
+      </c>
+      <c r="K71" t="s">
+        <v>450</v>
+      </c>
+      <c r="L71" t="s">
+        <v>451</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>452</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>433</v>
+      </c>
+      <c r="X71" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>454</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>455</v>
+      </c>
+      <c r="J72" t="s">
+        <v>456</v>
+      </c>
+      <c r="K72" t="s">
+        <v>457</v>
+      </c>
+      <c r="L72" t="s">
+        <v>458</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>452</v>
+      </c>
+      <c r="O72" t="s">
+        <v>100</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>433</v>
+      </c>
+      <c r="X72" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>460</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>461</v>
+      </c>
+      <c r="J73" t="s">
+        <v>462</v>
+      </c>
+      <c r="K73" t="s">
+        <v>463</v>
+      </c>
+      <c r="L73" t="s">
+        <v>464</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>452</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>433</v>
+      </c>
+      <c r="X73" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>466</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>467</v>
+      </c>
+      <c r="J74" t="s">
+        <v>468</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>144</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>452</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>433</v>
+      </c>
+      <c r="X74" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>469</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>470</v>
+      </c>
+      <c r="J75" t="s">
+        <v>471</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>144</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>472</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>433</v>
+      </c>
+      <c r="X75" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>473</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>474</v>
+      </c>
+      <c r="J76" t="s">
+        <v>475</v>
+      </c>
+      <c r="K76" t="s">
+        <v>476</v>
+      </c>
+      <c r="L76" t="s">
+        <v>477</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>472</v>
+      </c>
+      <c r="O76" t="s">
+        <v>70</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>433</v>
+      </c>
+      <c r="X76" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>479</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>480</v>
+      </c>
+      <c r="J77" t="s">
+        <v>481</v>
+      </c>
+      <c r="K77" t="s">
+        <v>482</v>
+      </c>
+      <c r="L77" t="s">
+        <v>483</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>472</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>433</v>
+      </c>
+      <c r="X77" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>485</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>486</v>
+      </c>
+      <c r="J78" t="s">
+        <v>487</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s">
+        <v>144</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>472</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>433</v>
+      </c>
+      <c r="X78" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>488</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>489</v>
+      </c>
+      <c r="J79" t="s">
+        <v>490</v>
+      </c>
+      <c r="K79" t="s">
+        <v>491</v>
+      </c>
+      <c r="L79" t="s">
+        <v>492</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>472</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>433</v>
+      </c>
+      <c r="X79" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>494</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>495</v>
+      </c>
+      <c r="J80" t="s">
+        <v>496</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s">
+        <v>144</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>472</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>433</v>
+      </c>
+      <c r="X80" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>497</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>498</v>
+      </c>
+      <c r="J81" t="s">
+        <v>499</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s">
+        <v>144</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>472</v>
+      </c>
+      <c r="O81" t="s">
+        <v>100</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>433</v>
+      </c>
+      <c r="X81" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>500</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>501</v>
+      </c>
+      <c r="J82" t="s">
+        <v>502</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s">
+        <v>144</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>503</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>504</v>
+      </c>
+      <c r="X82" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>506</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>507</v>
+      </c>
+      <c r="J83" t="s">
+        <v>508</v>
+      </c>
+      <c r="K83" t="s">
+        <v>509</v>
+      </c>
+      <c r="L83" t="s">
+        <v>510</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>503</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>504</v>
+      </c>
+      <c r="X83" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>512</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>513</v>
+      </c>
+      <c r="J84" t="s">
+        <v>514</v>
+      </c>
+      <c r="K84" t="s">
+        <v>515</v>
+      </c>
+      <c r="L84" t="s">
+        <v>516</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>503</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>504</v>
+      </c>
+      <c r="X84" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>518</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>519</v>
+      </c>
+      <c r="J85" t="s">
+        <v>520</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s">
+        <v>144</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>521</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>504</v>
+      </c>
+      <c r="X85" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
         <v>85</v>
       </c>
-      <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
-      <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="s">
-        <v>407</v>
-      </c>
-      <c r="X64" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>422</v>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>522</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>523</v>
+      </c>
+      <c r="J86" t="s">
+        <v>524</v>
+      </c>
+      <c r="K86" t="s">
+        <v>525</v>
+      </c>
+      <c r="L86" t="s">
+        <v>526</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>521</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>504</v>
+      </c>
+      <c r="X86" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>528</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>529</v>
+      </c>
+      <c r="J87" t="s">
+        <v>530</v>
+      </c>
+      <c r="K87" t="s">
+        <v>531</v>
+      </c>
+      <c r="L87" t="s">
+        <v>532</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>533</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>504</v>
+      </c>
+      <c r="X87" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>535</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>536</v>
+      </c>
+      <c r="J88" t="s">
+        <v>537</v>
+      </c>
+      <c r="K88" t="s">
+        <v>538</v>
+      </c>
+      <c r="L88" t="s">
+        <v>539</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>533</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>504</v>
+      </c>
+      <c r="X88" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>541</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>542</v>
+      </c>
+      <c r="J89" t="s">
+        <v>543</v>
+      </c>
+      <c r="K89" t="s">
+        <v>491</v>
+      </c>
+      <c r="L89" t="s">
+        <v>544</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>545</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>504</v>
+      </c>
+      <c r="X89" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>547</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>548</v>
+      </c>
+      <c r="J90" t="s">
+        <v>549</v>
+      </c>
+      <c r="K90" t="s">
+        <v>550</v>
+      </c>
+      <c r="L90" t="s">
+        <v>551</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>504</v>
+      </c>
+      <c r="X90" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>553</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>554</v>
+      </c>
+      <c r="J91" t="s">
+        <v>555</v>
+      </c>
+      <c r="K91" t="s">
+        <v>556</v>
+      </c>
+      <c r="L91" t="s">
+        <v>557</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>558</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>559</v>
+      </c>
+      <c r="X91" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>562</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>563</v>
+      </c>
+      <c r="J92" t="s">
+        <v>564</v>
+      </c>
+      <c r="K92" t="s">
+        <v>565</v>
+      </c>
+      <c r="L92" t="s">
+        <v>566</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>558</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>504</v>
+      </c>
+      <c r="X92" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>568</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>569</v>
+      </c>
+      <c r="J93" t="s">
+        <v>570</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s">
+        <v>144</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>571</v>
+      </c>
+      <c r="O93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>572</v>
+      </c>
+      <c r="X93" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>574</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>575</v>
+      </c>
+      <c r="J94" t="s">
+        <v>576</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s">
+        <v>144</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>571</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>577</v>
+      </c>
+      <c r="X94" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>579</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>580</v>
+      </c>
+      <c r="J95" t="s">
+        <v>581</v>
+      </c>
+      <c r="K95" t="s">
+        <v>582</v>
+      </c>
+      <c r="L95" t="s">
+        <v>583</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>571</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>577</v>
+      </c>
+      <c r="X95" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>585</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>586</v>
+      </c>
+      <c r="J96" t="s">
+        <v>587</v>
+      </c>
+      <c r="K96" t="s">
+        <v>588</v>
+      </c>
+      <c r="L96" t="s">
+        <v>589</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>571</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>590</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>591</v>
+      </c>
+      <c r="J97" t="s">
+        <v>592</v>
+      </c>
+      <c r="K97" t="s">
+        <v>593</v>
+      </c>
+      <c r="L97" t="s">
+        <v>594</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>571</v>
+      </c>
+      <c r="O97" t="s">
+        <v>70</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>577</v>
+      </c>
+      <c r="X97" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>596</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>597</v>
+      </c>
+      <c r="J98" t="s">
+        <v>598</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s">
+        <v>144</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>599</v>
+      </c>
+      <c r="O98" t="s">
+        <v>70</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>577</v>
+      </c>
+      <c r="X98" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>600</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>601</v>
+      </c>
+      <c r="J99" t="s">
+        <v>602</v>
+      </c>
+      <c r="K99" t="s">
+        <v>603</v>
+      </c>
+      <c r="L99" t="s">
+        <v>604</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>599</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>605</v>
+      </c>
+      <c r="X99" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>608</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>609</v>
+      </c>
+      <c r="J100" t="s">
+        <v>610</v>
+      </c>
+      <c r="K100" t="s">
+        <v>611</v>
+      </c>
+      <c r="L100" t="s">
+        <v>612</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>599</v>
+      </c>
+      <c r="O100" t="s">
+        <v>100</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>613</v>
+      </c>
+      <c r="X100" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>616</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>617</v>
+      </c>
+      <c r="J101" t="s">
+        <v>610</v>
+      </c>
+      <c r="K101" t="s">
+        <v>618</v>
+      </c>
+      <c r="L101" t="s">
+        <v>619</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>599</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>613</v>
+      </c>
+      <c r="X101" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>621</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>622</v>
+      </c>
+      <c r="J102" t="s">
+        <v>623</v>
+      </c>
+      <c r="K102" t="s">
+        <v>624</v>
+      </c>
+      <c r="L102" t="s">
+        <v>625</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>626</v>
+      </c>
+      <c r="O102" t="s">
+        <v>60</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>627</v>
+      </c>
+      <c r="X102" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>630</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>631</v>
+      </c>
+      <c r="J103" t="s">
+        <v>632</v>
+      </c>
+      <c r="K103" t="s">
+        <v>633</v>
+      </c>
+      <c r="L103" t="s">
+        <v>634</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>626</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>627</v>
+      </c>
+      <c r="X103" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>636</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>637</v>
+      </c>
+      <c r="J104" t="s">
+        <v>638</v>
+      </c>
+      <c r="K104" t="s">
+        <v>639</v>
+      </c>
+      <c r="L104" t="s">
+        <v>640</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>626</v>
+      </c>
+      <c r="O104" t="s">
+        <v>100</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>627</v>
+      </c>
+      <c r="X104" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>63634</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>642</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>643</v>
+      </c>
+      <c r="J105" t="s">
+        <v>644</v>
+      </c>
+      <c r="K105" t="s">
+        <v>645</v>
+      </c>
+      <c r="L105" t="s">
+        <v>646</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>647</v>
+      </c>
+      <c r="O105" t="s">
+        <v>100</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>627</v>
+      </c>
+      <c r="X105" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
